--- a/EC/Train Runs and Enforcements 2016-06-25.xlsx
+++ b/EC/Train Runs and Enforcements 2016-06-25.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Enforcements!$A$6:$N$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Trips'!$A$2:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Train Runs'!$A$12:$AC$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Train Runs'!$A$12:$AC$156</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Trips&amp;Operators'!$A$1:$E$211</definedName>
-    <definedName name="Denver_Train_Runs_04122016" localSheetId="0">'Train Runs'!$A$12:$J$139</definedName>
+    <definedName name="Denver_Train_Runs_04122016" localSheetId="0">'Train Runs'!$A$12:$J$138</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="507">
   <si>
     <t>Train ID</t>
   </si>
@@ -1562,6 +1562,21 @@
   </si>
   <si>
     <t>Wi-MAX outage near MP 3.6</t>
+  </si>
+  <si>
+    <t>Form C</t>
+  </si>
+  <si>
+    <t>Early Arrival</t>
+  </si>
+  <si>
+    <t>Routing @ 40th 4S</t>
+  </si>
+  <si>
+    <t>Main 3 at DUS</t>
+  </si>
+  <si>
+    <t>Comms</t>
   </si>
 </sst>
 </file>
@@ -2128,18 +2143,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_XINGS" xfId="1"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2153,14 +2161,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2172,44 +2173,62 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2288,36 +2307,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2601,10 +2590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM167"/>
+  <dimension ref="A1:CM166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V116" sqref="V116"/>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R63" sqref="R63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2727,8 +2716,8 @@
         <v>14</v>
       </c>
       <c r="J4" s="3">
-        <f>COUNT($N$13:$P$1943)</f>
-        <v>144</v>
+        <f>COUNT($N$13:$P$1942)</f>
+        <v>143</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -2761,21 +2750,21 @@
         <v>17</v>
       </c>
       <c r="J5" s="3">
-        <f>COUNT($N$13:$N$1943)</f>
+        <f>COUNT($N$13:$N$1942)</f>
         <v>134</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="45">
-        <f>AVERAGE($N$13:$N$943)</f>
+        <f>AVERAGE($N$13:$N$942)</f>
         <v>43.786442786604582</v>
       </c>
       <c r="N5" s="5">
-        <f>MIN($N$13:$N$943)</f>
+        <f>MIN($N$13:$N$942)</f>
         <v>36.166666665812954</v>
       </c>
       <c r="O5" s="6">
-        <f>MAX($N$13:$N$943)</f>
+        <f>MAX($N$13:$N$942)</f>
         <v>57.866666667396203</v>
       </c>
       <c r="P5" s="4"/>
@@ -2798,21 +2787,21 @@
         <v>43</v>
       </c>
       <c r="J6" s="3">
-        <f>COUNT($O$13:$O$943)</f>
+        <f>COUNT($O$13:$O$942)</f>
         <v>0</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="45">
-        <f>IFERROR(AVERAGE($O$13:$O$943),0)</f>
+        <f>IFERROR(AVERAGE($O$13:$O$942),0)</f>
         <v>0</v>
       </c>
       <c r="N6" s="5">
-        <f>MIN($O$13:$O$943)</f>
+        <f>MIN($O$13:$O$942)</f>
         <v>0</v>
       </c>
       <c r="O6" s="6">
-        <f>MAX($O$13:$O$943)</f>
+        <f>MAX($O$13:$O$942)</f>
         <v>0</v>
       </c>
       <c r="P6" s="4"/>
@@ -2835,8 +2824,8 @@
         <v>9</v>
       </c>
       <c r="J7" s="3">
-        <f>COUNT($P$13:$P$943)</f>
-        <v>10</v>
+        <f>COUNT($P$13:$P$942)</f>
+        <v>9</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2869,21 +2858,21 @@
         <v>16</v>
       </c>
       <c r="J8" s="3">
-        <f>COUNT($N$13:$O$943)</f>
+        <f>COUNT($N$13:$O$942)</f>
         <v>134</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="45">
-        <f>AVERAGE($N$13:$P$943)</f>
-        <v>53.083796296705259</v>
+        <f>AVERAGE($N$13:$P$942)</f>
+        <v>42.420862471323353</v>
       </c>
       <c r="N8" s="5">
-        <f>MIN($N$13:$O$943)</f>
+        <f>MIN($N$13:$O$942)</f>
         <v>36.166666665812954</v>
       </c>
       <c r="O8" s="6">
-        <f>MAX($N$13:$O$943)</f>
+        <f>MAX($N$13:$O$942)</f>
         <v>57.866666667396203</v>
       </c>
       <c r="P8" s="4"/>
@@ -2907,7 +2896,7 @@
       </c>
       <c r="J9" s="7">
         <f>J8/J4</f>
-        <v>0.93055555555555558</v>
+        <v>0.93706293706293708</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -3192,7 +3181,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y13" s="48">
-        <f t="shared" ref="Y13:Y49" si="8">RIGHT(D13,LEN(D13)-4)/10000</f>
+        <f t="shared" ref="Y13:Y48" si="8">RIGHT(D13,LEN(D13)-4)/10000</f>
         <v>7.6300000000000007E-2</v>
       </c>
       <c r="Z13" s="48">
@@ -6274,7 +6263,7 @@
         <v>23.297899999999998</v>
       </c>
       <c r="Z45" s="48">
-        <f t="shared" ref="Z45:Z49" si="28">RIGHT(H45,LEN(H45)-4)/10000</f>
+        <f t="shared" ref="Z45:Z47" si="28">RIGHT(H45,LEN(H45)-4)/10000</f>
         <v>1.47E-2</v>
       </c>
       <c r="AA45" s="48">
@@ -7325,19 +7314,19 @@
         <v>N</v>
       </c>
       <c r="X56" s="48">
-        <f t="shared" ref="X50:X61" si="33">VALUE(LEFT(A56,3))-VALUE(LEFT(A55,3))</f>
+        <f t="shared" ref="X56:X61" si="33">VALUE(LEFT(A56,3))-VALUE(LEFT(A55,3))</f>
         <v>1</v>
       </c>
       <c r="Y56" s="48">
-        <f t="shared" ref="Y50:Y61" si="34">RIGHT(D56,LEN(D56)-4)/10000</f>
+        <f t="shared" ref="Y56:Y61" si="34">RIGHT(D56,LEN(D56)-4)/10000</f>
         <v>23.297899999999998</v>
       </c>
       <c r="Z56" s="48">
-        <f t="shared" ref="Z50:Z61" si="35">RIGHT(H56,LEN(H56)-4)/10000</f>
+        <f t="shared" ref="Z56:Z61" si="35">RIGHT(H56,LEN(H56)-4)/10000</f>
         <v>1.61E-2</v>
       </c>
       <c r="AA56" s="48">
-        <f t="shared" ref="AA50:AA61" si="36">ABS(Z56-Y56)</f>
+        <f t="shared" ref="AA56:AA61" si="36">ABS(Z56-Y56)</f>
         <v>23.281799999999997</v>
       </c>
       <c r="AB56" s="49" t="e">
@@ -9149,11 +9138,11 @@
         <v>1</v>
       </c>
       <c r="Y75" s="48">
-        <f t="shared" ref="Y74:Y100" si="50">RIGHT(D75,LEN(D75)-4)/10000</f>
+        <f t="shared" ref="Y75:Y96" si="50">RIGHT(D75,LEN(D75)-4)/10000</f>
         <v>23.2988</v>
       </c>
       <c r="Z75" s="48">
-        <f t="shared" ref="Z74:Z100" si="51">RIGHT(H75,LEN(H75)-4)/10000</f>
+        <f t="shared" ref="Z75:Z96" si="51">RIGHT(H75,LEN(H75)-4)/10000</f>
         <v>1.38E-2</v>
       </c>
       <c r="AA75" s="48">
@@ -11338,7 +11327,7 @@
       <c r="Q98" s="44"/>
       <c r="R98" s="44"/>
       <c r="S98" s="70">
-        <f t="shared" ref="S98:S128" si="53">SUM(U98:U98)/12</f>
+        <f t="shared" ref="S98:S127" si="53">SUM(U98:U98)/12</f>
         <v>1</v>
       </c>
       <c r="T98" s="2" t="str">
@@ -11366,7 +11355,7 @@
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="Z98" s="48">
-        <f t="shared" ref="Z97:Z100" si="54">RIGHT(H98,LEN(H98)-4)/10000</f>
+        <f t="shared" ref="Z98:Z100" si="54">RIGHT(H98,LEN(H98)-4)/10000</f>
         <v>23.328800000000001</v>
       </c>
       <c r="AA98" s="48">
@@ -11746,11 +11735,11 @@
         <v>1</v>
       </c>
       <c r="Y102" s="48">
-        <f t="shared" ref="Y102:Y124" si="58">RIGHT(D102,LEN(D102)-4)/10000</f>
+        <f t="shared" ref="Y102:Y123" si="58">RIGHT(D102,LEN(D102)-4)/10000</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="Z102" s="48">
-        <f t="shared" ref="Z102:Z124" si="59">RIGHT(H102,LEN(H102)-4)/10000</f>
+        <f t="shared" ref="Z102:Z123" si="59">RIGHT(H102,LEN(H102)-4)/10000</f>
         <v>23.330500000000001</v>
       </c>
       <c r="AA102" s="48">
@@ -11798,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="43" t="str">
-        <f t="shared" ref="K103:K133" si="60">IF(ISEVEN(B103),(B103-1)&amp;"/"&amp;B103,B103&amp;"/"&amp;(B103+1))</f>
+        <f t="shared" ref="K103:K132" si="60">IF(ISEVEN(B103),(B103-1)&amp;"/"&amp;B103,B103&amp;"/"&amp;(B103+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L103" s="43" t="str">
@@ -11806,11 +11795,11 @@
         <v>YANAI</v>
       </c>
       <c r="M103" s="11">
-        <f t="shared" ref="M103:M133" si="61">I103-F103</f>
+        <f t="shared" ref="M103:M132" si="61">I103-F103</f>
         <v>3.1643518515920732E-2</v>
       </c>
       <c r="N103" s="12">
-        <f t="shared" ref="N103:P133" si="62">24*60*SUM($M103:$M103)</f>
+        <f t="shared" ref="N103:P132" si="62">24*60*SUM($M103:$M103)</f>
         <v>45.566666662925854</v>
       </c>
       <c r="O103" s="12"/>
@@ -11822,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="T103" s="2" t="str">
-        <f t="shared" ref="T103:T133" si="63">IF(ISEVEN(LEFT(A103,3)),"Southbound","NorthBound")</f>
+        <f t="shared" ref="T103:T132" si="63">IF(ISEVEN(LEFT(A103,3)),"Southbound","NorthBound")</f>
         <v>Southbound</v>
       </c>
       <c r="U103" s="2">
@@ -11830,15 +11819,15 @@
         <v>12</v>
       </c>
       <c r="V103" s="48" t="str">
-        <f t="shared" ref="V103:V133" si="64">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E103-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I103+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B103&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="V103:V132" si="64">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E103-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I103+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B103&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 15:48:02-0600',mode:absolute,to:'2016-06-25 16:37:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W103" s="48" t="str">
-        <f t="shared" ref="W103:W133" si="65">IF(AA103&lt;23,"Y","N")</f>
+        <f t="shared" ref="W103:W132" si="65">IF(AA103&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X103" s="48">
-        <f t="shared" ref="X103:X157" si="66">VALUE(LEFT(A103,3))-VALUE(LEFT(A102,3))</f>
+        <f t="shared" ref="X103:X156" si="66">VALUE(LEFT(A103,3))-VALUE(LEFT(A102,3))</f>
         <v>1</v>
       </c>
       <c r="Y103" s="48">
@@ -11850,7 +11839,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="AA103" s="48">
-        <f t="shared" ref="AA103:AA133" si="67">ABS(Z103-Y103)</f>
+        <f t="shared" ref="AA103:AA132" si="67">ABS(Z103-Y103)</f>
         <v>23.283800000000003</v>
       </c>
       <c r="AB103" s="49" t="e">
@@ -13040,7 +13029,7 @@
         <v>207</v>
       </c>
       <c r="I116" s="25">
-        <v>42547.244884259257</v>
+        <v>42546.696770833332</v>
       </c>
       <c r="J116" s="43">
         <v>0</v>
@@ -13055,19 +13044,21 @@
       </c>
       <c r="M116" s="11">
         <f t="shared" si="61"/>
-        <v>0.549351851848769</v>
+        <v>1.2384259243845008E-3</v>
       </c>
       <c r="N116" s="12"/>
       <c r="O116" s="12"/>
       <c r="P116" s="12">
         <f t="shared" si="62"/>
-        <v>791.06666666222736</v>
+        <v>1.7833333311136812</v>
       </c>
       <c r="Q116" s="44"/>
-      <c r="R116" s="44"/>
+      <c r="R116" s="44" t="s">
+        <v>497</v>
+      </c>
       <c r="S116" s="70">
         <f t="shared" si="53"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T116" s="2" t="str">
         <f t="shared" si="63"/>
@@ -13075,15 +13066,15 @@
       </c>
       <c r="U116" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T116="NorthBound","&gt;=","&lt;=")&amp;Y116,Variables!$M$2:$M$19,IF(T116="NorthBound","&lt;=","&gt;=")&amp;Z116)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="V116" s="48" t="str">
         <f t="shared" si="64"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 16:39:13-0600',mode:absolute,to:'2016-06-26 05:53:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 16:39:13-0600',mode:absolute,to:'2016-06-25 16:44:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W116" s="48" t="str">
         <f t="shared" si="65"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="X116" s="48">
         <f t="shared" si="66"/>
@@ -13094,12 +13085,11 @@
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="Z116" s="48">
-        <f t="shared" si="59"/>
-        <v>23.331199999999999</v>
+        <v>4.7699999999999999E-2</v>
       </c>
       <c r="AA116" s="48">
         <f t="shared" si="67"/>
-        <v>23.284099999999999</v>
+        <v>5.9999999999999637E-4</v>
       </c>
       <c r="AB116" s="49" t="e">
         <f>VLOOKUP(A116,Enforcements!$C$7:$J$32,8,0)</f>
@@ -13112,31 +13102,31 @@
     </row>
     <row r="117" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="43" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B117" s="43">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C117" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D117" s="43" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E117" s="25">
-        <v>42546.694594907407</v>
+        <v>42546.734756944446</v>
       </c>
       <c r="F117" s="25">
-        <v>42546.697245370371</v>
+        <v>42546.735960648148</v>
       </c>
       <c r="G117" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H117" s="25" t="s">
-        <v>207</v>
+        <v>421</v>
       </c>
       <c r="I117" s="25">
-        <v>42547.244884259257</v>
+        <v>42546.76390046296</v>
       </c>
       <c r="J117" s="43">
         <v>0</v>
@@ -13151,14 +13141,14 @@
       </c>
       <c r="M117" s="11">
         <f t="shared" si="61"/>
-        <v>0.54763888888555812</v>
-      </c>
-      <c r="N117" s="12"/>
+        <v>2.7939814812270924E-2</v>
+      </c>
+      <c r="N117" s="12">
+        <f t="shared" si="62"/>
+        <v>40.233333329670131</v>
+      </c>
       <c r="O117" s="12"/>
-      <c r="P117" s="12">
-        <f t="shared" si="62"/>
-        <v>788.59999999520369</v>
-      </c>
+      <c r="P117" s="12"/>
       <c r="Q117" s="44"/>
       <c r="R117" s="44"/>
       <c r="S117" s="70">
@@ -13167,7 +13157,7 @@
       </c>
       <c r="T117" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U117" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T117="NorthBound","&gt;=","&lt;=")&amp;Y117,Variables!$M$2:$M$19,IF(T117="NorthBound","&lt;=","&gt;=")&amp;Z117)</f>
@@ -13175,7 +13165,7 @@
       </c>
       <c r="V117" s="48" t="str">
         <f t="shared" si="64"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 16:39:13-0600',mode:absolute,to:'2016-06-26 05:53:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 17:37:03-0600',mode:absolute,to:'2016-06-25 18:21:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W117" s="48" t="str">
         <f t="shared" si="65"/>
@@ -13183,19 +13173,19 @@
       </c>
       <c r="X117" s="48">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y117" s="48">
         <f t="shared" si="58"/>
-        <v>4.6699999999999998E-2</v>
+        <v>23.298300000000001</v>
       </c>
       <c r="Z117" s="48">
         <f t="shared" si="59"/>
-        <v>23.331199999999999</v>
+        <v>0.1188</v>
       </c>
       <c r="AA117" s="48">
         <f t="shared" si="67"/>
-        <v>23.284499999999998</v>
+        <v>23.179500000000001</v>
       </c>
       <c r="AB117" s="49" t="e">
         <f>VLOOKUP(A117,Enforcements!$C$7:$J$32,8,0)</f>
@@ -13208,50 +13198,50 @@
     </row>
     <row r="118" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="43" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B118" s="43">
-        <v>4008</v>
+        <v>4024</v>
       </c>
       <c r="C118" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D118" s="43" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E118" s="25">
-        <v>42546.734756944446</v>
+        <v>42546.704259259262</v>
       </c>
       <c r="F118" s="25">
-        <v>42546.735960648148</v>
+        <v>42546.70516203704</v>
       </c>
       <c r="G118" s="31">
         <v>1</v>
       </c>
       <c r="H118" s="25" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I118" s="25">
-        <v>42546.76390046296</v>
+        <v>42546.734548611108</v>
       </c>
       <c r="J118" s="43">
         <v>0</v>
       </c>
       <c r="K118" s="43" t="str">
         <f t="shared" si="60"/>
-        <v>4007/4008</v>
+        <v>4023/4024</v>
       </c>
       <c r="L118" s="43" t="str">
         <f>VLOOKUP(A118,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>YANAI</v>
+        <v>LOCKLEAR</v>
       </c>
       <c r="M118" s="11">
         <f t="shared" si="61"/>
-        <v>2.7939814812270924E-2</v>
+        <v>2.9386574067757465E-2</v>
       </c>
       <c r="N118" s="12">
         <f t="shared" si="62"/>
-        <v>40.233333329670131</v>
+        <v>42.31666665757075</v>
       </c>
       <c r="O118" s="12"/>
       <c r="P118" s="12"/>
@@ -13263,7 +13253,7 @@
       </c>
       <c r="T118" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U118" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T118="NorthBound","&gt;=","&lt;=")&amp;Y118,Variables!$M$2:$M$19,IF(T118="NorthBound","&lt;=","&gt;=")&amp;Z118)</f>
@@ -13271,10 +13261,10 @@
       </c>
       <c r="V118" s="48" t="str">
         <f t="shared" si="64"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 17:37:03-0600',mode:absolute,to:'2016-06-25 18:21:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 16:53:08-0600',mode:absolute,to:'2016-06-25 17:38:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W118" s="48" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="W118:W129" si="68">IF(AA118&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X118" s="48">
@@ -13282,16 +13272,16 @@
         <v>1</v>
       </c>
       <c r="Y118" s="48">
-        <f t="shared" si="58"/>
-        <v>23.298300000000001</v>
+        <f t="shared" ref="Y118:Y129" si="69">RIGHT(D118,LEN(D118)-4)/10000</f>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="Z118" s="48">
-        <f t="shared" si="59"/>
-        <v>0.1188</v>
+        <f t="shared" ref="Z118:Z129" si="70">RIGHT(H118,LEN(H118)-4)/10000</f>
+        <v>23.3339</v>
       </c>
       <c r="AA118" s="48">
-        <f t="shared" si="67"/>
-        <v>23.179500000000001</v>
+        <f t="shared" ref="AA118:AA129" si="71">ABS(Z118-Y118)</f>
+        <v>23.286999999999999</v>
       </c>
       <c r="AB118" s="49" t="e">
         <f>VLOOKUP(A118,Enforcements!$C$7:$J$32,8,0)</f>
@@ -13304,34 +13294,34 @@
     </row>
     <row r="119" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="43" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B119" s="43">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="C119" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D119" s="43" t="s">
-        <v>110</v>
+        <v>425</v>
       </c>
       <c r="E119" s="25">
-        <v>42546.704259259262</v>
+        <v>42546.743842592594</v>
       </c>
       <c r="F119" s="25">
-        <v>42546.70516203704</v>
+        <v>42546.744976851849</v>
       </c>
       <c r="G119" s="31">
         <v>1</v>
       </c>
       <c r="H119" s="25" t="s">
-        <v>423</v>
+        <v>75</v>
       </c>
       <c r="I119" s="25">
-        <v>42546.734548611108</v>
+        <v>42546.775520833333</v>
       </c>
       <c r="J119" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" s="43" t="str">
         <f t="shared" si="60"/>
@@ -13343,11 +13333,11 @@
       </c>
       <c r="M119" s="11">
         <f t="shared" si="61"/>
-        <v>2.9386574067757465E-2</v>
+        <v>3.054398148378823E-2</v>
       </c>
       <c r="N119" s="12">
         <f t="shared" si="62"/>
-        <v>42.31666665757075</v>
+        <v>43.983333336655051</v>
       </c>
       <c r="O119" s="12"/>
       <c r="P119" s="12"/>
@@ -13359,7 +13349,7 @@
       </c>
       <c r="T119" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U119" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T119="NorthBound","&gt;=","&lt;=")&amp;Y119,Variables!$M$2:$M$19,IF(T119="NorthBound","&lt;=","&gt;=")&amp;Z119)</f>
@@ -13367,10 +13357,10 @@
       </c>
       <c r="V119" s="48" t="str">
         <f t="shared" si="64"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 16:53:08-0600',mode:absolute,to:'2016-06-25 17:38:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 17:50:08-0600',mode:absolute,to:'2016-06-25 18:37:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W119" s="48" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>N</v>
       </c>
       <c r="X119" s="48">
@@ -13378,72 +13368,72 @@
         <v>1</v>
       </c>
       <c r="Y119" s="48">
-        <f t="shared" si="58"/>
-        <v>4.6899999999999997E-2</v>
+        <f t="shared" si="69"/>
+        <v>23.302099999999999</v>
       </c>
       <c r="Z119" s="48">
-        <f t="shared" si="59"/>
-        <v>23.3339</v>
+        <f t="shared" si="70"/>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="AA119" s="48">
-        <f t="shared" si="67"/>
-        <v>23.286999999999999</v>
-      </c>
-      <c r="AB119" s="49" t="e">
+        <f t="shared" si="71"/>
+        <v>23.2865</v>
+      </c>
+      <c r="AB119" s="49">
         <f>VLOOKUP(A119,Enforcements!$C$7:$J$32,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC119" s="49" t="e">
+        <v>42961</v>
+      </c>
+      <c r="AC119" s="49" t="str">
         <f>VLOOKUP(A119,Enforcements!$C$7:$E$32,3,0)</f>
-        <v>#N/A</v>
+        <v>GRADE CROSSING</v>
       </c>
     </row>
     <row r="120" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="43" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B120" s="43">
-        <v>4023</v>
+        <v>4014</v>
       </c>
       <c r="C120" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D120" s="43" t="s">
-        <v>425</v>
+        <v>110</v>
       </c>
       <c r="E120" s="25">
-        <v>42546.743842592594</v>
+        <v>42546.717013888891</v>
       </c>
       <c r="F120" s="25">
-        <v>42546.744976851849</v>
+        <v>42546.718078703707</v>
       </c>
       <c r="G120" s="31">
         <v>1</v>
       </c>
       <c r="H120" s="25" t="s">
-        <v>75</v>
+        <v>427</v>
       </c>
       <c r="I120" s="25">
-        <v>42546.775520833333</v>
+        <v>42546.744085648148</v>
       </c>
       <c r="J120" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" s="43" t="str">
         <f t="shared" si="60"/>
-        <v>4023/4024</v>
+        <v>4013/4014</v>
       </c>
       <c r="L120" s="43" t="str">
         <f>VLOOKUP(A120,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>LOCKLEAR</v>
+        <v>ACKERMAN</v>
       </c>
       <c r="M120" s="11">
         <f t="shared" si="61"/>
-        <v>3.054398148378823E-2</v>
+        <v>2.6006944441178348E-2</v>
       </c>
       <c r="N120" s="12">
         <f t="shared" si="62"/>
-        <v>43.983333336655051</v>
+        <v>37.449999995296821</v>
       </c>
       <c r="O120" s="12"/>
       <c r="P120" s="12"/>
@@ -13455,7 +13445,7 @@
       </c>
       <c r="T120" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U120" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T120="NorthBound","&gt;=","&lt;=")&amp;Y120,Variables!$M$2:$M$19,IF(T120="NorthBound","&lt;=","&gt;=")&amp;Z120)</f>
@@ -13463,10 +13453,10 @@
       </c>
       <c r="V120" s="48" t="str">
         <f t="shared" si="64"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 17:50:08-0600',mode:absolute,to:'2016-06-25 18:37:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 17:11:30-0600',mode:absolute,to:'2016-06-25 17:52:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W120" s="48" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>N</v>
       </c>
       <c r="X120" s="48">
@@ -13474,53 +13464,53 @@
         <v>1</v>
       </c>
       <c r="Y120" s="48">
-        <f t="shared" si="58"/>
-        <v>23.302099999999999</v>
+        <f t="shared" si="69"/>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="Z120" s="48">
-        <f t="shared" si="59"/>
-        <v>1.5599999999999999E-2</v>
+        <f t="shared" si="70"/>
+        <v>23.332899999999999</v>
       </c>
       <c r="AA120" s="48">
-        <f t="shared" si="67"/>
-        <v>23.2865</v>
-      </c>
-      <c r="AB120" s="49">
+        <f t="shared" si="71"/>
+        <v>23.285999999999998</v>
+      </c>
+      <c r="AB120" s="49" t="e">
         <f>VLOOKUP(A120,Enforcements!$C$7:$J$32,8,0)</f>
-        <v>42961</v>
-      </c>
-      <c r="AC120" s="49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC120" s="49" t="e">
         <f>VLOOKUP(A120,Enforcements!$C$7:$E$32,3,0)</f>
-        <v>GRADE CROSSING</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="43" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B121" s="43">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="C121" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D121" s="43" t="s">
-        <v>110</v>
+        <v>404</v>
       </c>
       <c r="E121" s="25">
-        <v>42546.717013888891</v>
+        <v>42546.750567129631</v>
       </c>
       <c r="F121" s="25">
-        <v>42546.718078703707</v>
+        <v>42546.751643518517</v>
       </c>
       <c r="G121" s="31">
         <v>1</v>
       </c>
       <c r="H121" s="25" t="s">
-        <v>427</v>
+        <v>182</v>
       </c>
       <c r="I121" s="25">
-        <v>42546.744085648148</v>
+        <v>42546.786990740744</v>
       </c>
       <c r="J121" s="43">
         <v>0</v>
@@ -13535,11 +13525,11 @@
       </c>
       <c r="M121" s="11">
         <f t="shared" si="61"/>
-        <v>2.6006944441178348E-2</v>
+        <v>3.5347222226846498E-2</v>
       </c>
       <c r="N121" s="12">
         <f t="shared" si="62"/>
-        <v>37.449999995296821</v>
+        <v>50.900000006658956</v>
       </c>
       <c r="O121" s="12"/>
       <c r="P121" s="12"/>
@@ -13551,7 +13541,7 @@
       </c>
       <c r="T121" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U121" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T121="NorthBound","&gt;=","&lt;=")&amp;Y121,Variables!$M$2:$M$19,IF(T121="NorthBound","&lt;=","&gt;=")&amp;Z121)</f>
@@ -13559,10 +13549,10 @@
       </c>
       <c r="V121" s="48" t="str">
         <f t="shared" si="64"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 17:11:30-0600',mode:absolute,to:'2016-06-25 17:52:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 17:59:49-0600',mode:absolute,to:'2016-06-25 18:54:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W121" s="48" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>N</v>
       </c>
       <c r="X121" s="48">
@@ -13570,16 +13560,16 @@
         <v>1</v>
       </c>
       <c r="Y121" s="48">
-        <f t="shared" si="58"/>
-        <v>4.6899999999999997E-2</v>
+        <f t="shared" si="69"/>
+        <v>23.300999999999998</v>
       </c>
       <c r="Z121" s="48">
-        <f t="shared" si="59"/>
-        <v>23.332899999999999</v>
+        <f t="shared" si="70"/>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="AA121" s="48">
-        <f t="shared" si="67"/>
-        <v>23.285999999999998</v>
+        <f t="shared" si="71"/>
+        <v>23.287399999999998</v>
       </c>
       <c r="AB121" s="49" t="e">
         <f>VLOOKUP(A121,Enforcements!$C$7:$J$32,8,0)</f>
@@ -13592,50 +13582,50 @@
     </row>
     <row r="122" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="43" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B122" s="43">
-        <v>4013</v>
+        <v>4018</v>
       </c>
       <c r="C122" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D122" s="43" t="s">
-        <v>404</v>
+        <v>102</v>
       </c>
       <c r="E122" s="25">
-        <v>42546.750567129631</v>
+        <v>42546.727777777778</v>
       </c>
       <c r="F122" s="25">
-        <v>42546.751643518517</v>
+        <v>42546.728726851848</v>
       </c>
       <c r="G122" s="31">
         <v>1</v>
       </c>
       <c r="H122" s="25" t="s">
-        <v>182</v>
+        <v>430</v>
       </c>
       <c r="I122" s="25">
-        <v>42546.786990740744</v>
+        <v>42546.756180555552</v>
       </c>
       <c r="J122" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" s="43" t="str">
         <f t="shared" si="60"/>
-        <v>4013/4014</v>
+        <v>4017/4018</v>
       </c>
       <c r="L122" s="43" t="str">
         <f>VLOOKUP(A122,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>ACKERMAN</v>
+        <v>STEWART</v>
       </c>
       <c r="M122" s="11">
         <f t="shared" si="61"/>
-        <v>3.5347222226846498E-2</v>
+        <v>2.7453703703940846E-2</v>
       </c>
       <c r="N122" s="12">
         <f t="shared" si="62"/>
-        <v>50.900000006658956</v>
+        <v>39.533333333674818</v>
       </c>
       <c r="O122" s="12"/>
       <c r="P122" s="12"/>
@@ -13647,7 +13637,7 @@
       </c>
       <c r="T122" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U122" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T122="NorthBound","&gt;=","&lt;=")&amp;Y122,Variables!$M$2:$M$19,IF(T122="NorthBound","&lt;=","&gt;=")&amp;Z122)</f>
@@ -13655,10 +13645,10 @@
       </c>
       <c r="V122" s="48" t="str">
         <f t="shared" si="64"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 17:59:49-0600',mode:absolute,to:'2016-06-25 18:54:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 17:27:00-0600',mode:absolute,to:'2016-06-25 18:09:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W122" s="48" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>N</v>
       </c>
       <c r="X122" s="48">
@@ -13666,16 +13656,16 @@
         <v>1</v>
       </c>
       <c r="Y122" s="48">
-        <f t="shared" si="58"/>
-        <v>23.300999999999998</v>
+        <f t="shared" si="69"/>
+        <v>4.4699999999999997E-2</v>
       </c>
       <c r="Z122" s="48">
-        <f t="shared" si="59"/>
-        <v>1.3599999999999999E-2</v>
+        <f t="shared" si="70"/>
+        <v>23.3232</v>
       </c>
       <c r="AA122" s="48">
-        <f t="shared" si="67"/>
-        <v>23.287399999999998</v>
+        <f t="shared" si="71"/>
+        <v>23.278500000000001</v>
       </c>
       <c r="AB122" s="49" t="e">
         <f>VLOOKUP(A122,Enforcements!$C$7:$J$32,8,0)</f>
@@ -13688,34 +13678,34 @@
     </row>
     <row r="123" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="43" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B123" s="43">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="C123" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D123" s="43" t="s">
-        <v>102</v>
+        <v>432</v>
       </c>
       <c r="E123" s="25">
-        <v>42546.727777777778</v>
+        <v>42546.765694444446</v>
       </c>
       <c r="F123" s="25">
-        <v>42546.728726851848</v>
+        <v>42546.766481481478</v>
       </c>
       <c r="G123" s="31">
         <v>1</v>
       </c>
       <c r="H123" s="25" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I123" s="25">
-        <v>42546.756180555552</v>
+        <v>42546.797754629632</v>
       </c>
       <c r="J123" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123" s="43" t="str">
         <f t="shared" si="60"/>
@@ -13727,11 +13717,11 @@
       </c>
       <c r="M123" s="11">
         <f t="shared" si="61"/>
-        <v>2.7453703703940846E-2</v>
+        <v>3.1273148153559305E-2</v>
       </c>
       <c r="N123" s="12">
         <f t="shared" si="62"/>
-        <v>39.533333333674818</v>
+        <v>45.033333341125399</v>
       </c>
       <c r="O123" s="12"/>
       <c r="P123" s="12"/>
@@ -13743,7 +13733,7 @@
       </c>
       <c r="T123" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U123" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T123="NorthBound","&gt;=","&lt;=")&amp;Y123,Variables!$M$2:$M$19,IF(T123="NorthBound","&lt;=","&gt;=")&amp;Z123)</f>
@@ -13751,10 +13741,10 @@
       </c>
       <c r="V123" s="48" t="str">
         <f t="shared" si="64"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 17:27:00-0600',mode:absolute,to:'2016-06-25 18:09:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 18:21:36-0600',mode:absolute,to:'2016-06-25 19:09:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W123" s="48" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>N</v>
       </c>
       <c r="X123" s="48">
@@ -13762,16 +13752,16 @@
         <v>1</v>
       </c>
       <c r="Y123" s="48">
-        <f t="shared" si="58"/>
-        <v>4.4699999999999997E-2</v>
+        <f t="shared" si="69"/>
+        <v>23.290199999999999</v>
       </c>
       <c r="Z123" s="48">
-        <f t="shared" si="59"/>
-        <v>23.3232</v>
+        <f t="shared" si="70"/>
+        <v>1.67E-2</v>
       </c>
       <c r="AA123" s="48">
-        <f t="shared" si="67"/>
-        <v>23.278500000000001</v>
+        <f t="shared" si="71"/>
+        <v>23.273499999999999</v>
       </c>
       <c r="AB123" s="49" t="e">
         <f>VLOOKUP(A123,Enforcements!$C$7:$J$32,8,0)</f>
@@ -13784,50 +13774,50 @@
     </row>
     <row r="124" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="43" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B124" s="43">
-        <v>4017</v>
+        <v>4042</v>
       </c>
       <c r="C124" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D124" s="43" t="s">
-        <v>432</v>
+        <v>87</v>
       </c>
       <c r="E124" s="25">
-        <v>42546.765694444446</v>
+        <v>42546.737743055557</v>
       </c>
       <c r="F124" s="25">
-        <v>42546.766481481478</v>
+        <v>42546.738796296297</v>
       </c>
       <c r="G124" s="31">
         <v>1</v>
       </c>
       <c r="H124" s="25" t="s">
-        <v>433</v>
+        <v>152</v>
       </c>
       <c r="I124" s="25">
-        <v>42546.797754629632</v>
+        <v>42546.765370370369</v>
       </c>
       <c r="J124" s="43">
         <v>0</v>
       </c>
       <c r="K124" s="43" t="str">
         <f t="shared" si="60"/>
-        <v>4017/4018</v>
+        <v>4041/4042</v>
       </c>
       <c r="L124" s="43" t="str">
         <f>VLOOKUP(A124,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>STEWART</v>
+        <v>LEVERE</v>
       </c>
       <c r="M124" s="11">
         <f t="shared" si="61"/>
-        <v>3.1273148153559305E-2</v>
+        <v>2.6574074072414078E-2</v>
       </c>
       <c r="N124" s="12">
         <f t="shared" si="62"/>
-        <v>45.033333341125399</v>
+        <v>38.266666664276272</v>
       </c>
       <c r="O124" s="12"/>
       <c r="P124" s="12"/>
@@ -13839,18 +13829,18 @@
       </c>
       <c r="T124" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U124" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T124="NorthBound","&gt;=","&lt;=")&amp;Y124,Variables!$M$2:$M$19,IF(T124="NorthBound","&lt;=","&gt;=")&amp;Z124)</f>
         <v>12</v>
       </c>
       <c r="V124" s="48" t="str">
-        <f t="shared" si="64"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 18:21:36-0600',mode:absolute,to:'2016-06-25 19:09:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
+        <f t="shared" ref="V124:V131" si="72">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E124-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I124+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B124&amp;"%22')),sort:!(Time,asc))"</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 17:41:21-0600',mode:absolute,to:'2016-06-25 18:23:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W124" s="48" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>N</v>
       </c>
       <c r="X124" s="48">
@@ -13858,16 +13848,16 @@
         <v>1</v>
       </c>
       <c r="Y124" s="48">
-        <f t="shared" si="58"/>
-        <v>23.290199999999999</v>
+        <f t="shared" si="69"/>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="Z124" s="48">
-        <f t="shared" si="59"/>
-        <v>1.67E-2</v>
+        <f t="shared" si="70"/>
+        <v>23.3263</v>
       </c>
       <c r="AA124" s="48">
-        <f t="shared" si="67"/>
-        <v>23.273499999999999</v>
+        <f t="shared" si="71"/>
+        <v>23.279900000000001</v>
       </c>
       <c r="AB124" s="49" t="e">
         <f>VLOOKUP(A124,Enforcements!$C$7:$J$32,8,0)</f>
@@ -13880,31 +13870,31 @@
     </row>
     <row r="125" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="43" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B125" s="43">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="C125" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D125" s="43" t="s">
-        <v>87</v>
+        <v>436</v>
       </c>
       <c r="E125" s="25">
-        <v>42546.737743055557</v>
+        <v>42546.769803240742</v>
       </c>
       <c r="F125" s="25">
-        <v>42546.738796296297</v>
+        <v>42546.770868055559</v>
       </c>
       <c r="G125" s="31">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H125" s="25" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="I125" s="25">
-        <v>42546.765370370369</v>
+        <v>42546.805405092593</v>
       </c>
       <c r="J125" s="43">
         <v>0</v>
@@ -13919,51 +13909,53 @@
       </c>
       <c r="M125" s="11">
         <f t="shared" si="61"/>
-        <v>2.6574074072414078E-2</v>
+        <v>3.4537037034169771E-2</v>
       </c>
       <c r="N125" s="12">
         <f t="shared" si="62"/>
-        <v>38.266666664276272</v>
+        <v>49.73333332920447</v>
       </c>
       <c r="O125" s="12"/>
       <c r="P125" s="12"/>
       <c r="Q125" s="44"/>
-      <c r="R125" s="44"/>
+      <c r="R125" s="44" t="s">
+        <v>495</v>
+      </c>
       <c r="S125" s="70">
         <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="T125" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U125" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T125="NorthBound","&gt;=","&lt;=")&amp;Y125,Variables!$M$2:$M$19,IF(T125="NorthBound","&lt;=","&gt;=")&amp;Z125)</f>
         <v>12</v>
       </c>
       <c r="V125" s="48" t="str">
-        <f t="shared" ref="V125:V132" si="68">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E125-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I125+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B125&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 17:41:21-0600',mode:absolute,to:'2016-06-25 18:23:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="72"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 18:27:31-0600',mode:absolute,to:'2016-06-25 19:20:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W125" s="48" t="str">
-        <f t="shared" ref="W125:W132" si="69">IF(AA125&lt;23,"Y","N")</f>
+        <f t="shared" si="68"/>
         <v>N</v>
       </c>
       <c r="X125" s="48">
-        <f t="shared" ref="X125:X132" si="70">VALUE(LEFT(A125,3))-VALUE(LEFT(A124,3))</f>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="Y125" s="48">
-        <f t="shared" ref="Y125:Y132" si="71">RIGHT(D125,LEN(D125)-4)/10000</f>
-        <v>4.6399999999999997E-2</v>
+        <f t="shared" si="69"/>
+        <v>23.293199999999999</v>
       </c>
       <c r="Z125" s="48">
-        <f t="shared" ref="Z125:Z132" si="72">RIGHT(H125,LEN(H125)-4)/10000</f>
-        <v>23.3263</v>
+        <f t="shared" si="70"/>
+        <v>1.6E-2</v>
       </c>
       <c r="AA125" s="48">
-        <f t="shared" ref="AA125:AA132" si="73">ABS(Z125-Y125)</f>
-        <v>23.279900000000001</v>
+        <f t="shared" si="71"/>
+        <v>23.277200000000001</v>
       </c>
       <c r="AB125" s="49" t="e">
         <f>VLOOKUP(A125,Enforcements!$C$7:$J$32,8,0)</f>
@@ -13976,92 +13968,90 @@
     </row>
     <row r="126" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="43" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B126" s="43">
-        <v>4041</v>
+        <v>4025</v>
       </c>
       <c r="C126" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D126" s="43" t="s">
-        <v>436</v>
+        <v>302</v>
       </c>
       <c r="E126" s="25">
-        <v>42546.769803240742</v>
+        <v>42546.745995370373</v>
       </c>
       <c r="F126" s="25">
-        <v>42546.770868055559</v>
+        <v>42546.74722222222</v>
       </c>
       <c r="G126" s="31">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H126" s="25" t="s">
-        <v>68</v>
+        <v>438</v>
       </c>
       <c r="I126" s="25">
-        <v>42546.805405092593</v>
+        <v>42546.776574074072</v>
       </c>
       <c r="J126" s="43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K126" s="43" t="str">
         <f t="shared" si="60"/>
-        <v>4041/4042</v>
+        <v>4025/4026</v>
       </c>
       <c r="L126" s="43" t="str">
         <f>VLOOKUP(A126,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>LEVERE</v>
+        <v>WEBSTER</v>
       </c>
       <c r="M126" s="11">
         <f t="shared" si="61"/>
-        <v>3.4537037034169771E-2</v>
+        <v>2.9351851851970423E-2</v>
       </c>
       <c r="N126" s="12">
         <f t="shared" si="62"/>
-        <v>49.73333332920447</v>
+        <v>42.266666666837409</v>
       </c>
       <c r="O126" s="12"/>
       <c r="P126" s="12"/>
       <c r="Q126" s="44"/>
-      <c r="R126" s="44" t="s">
-        <v>495</v>
-      </c>
+      <c r="R126" s="44"/>
       <c r="S126" s="70">
         <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="T126" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U126" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T126="NorthBound","&gt;=","&lt;=")&amp;Y126,Variables!$M$2:$M$19,IF(T126="NorthBound","&lt;=","&gt;=")&amp;Z126)</f>
         <v>12</v>
       </c>
       <c r="V126" s="48" t="str">
+        <f t="shared" si="72"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 17:53:14-0600',mode:absolute,to:'2016-06-25 18:39:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="W126" s="48" t="str">
         <f t="shared" si="68"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 18:27:31-0600',mode:absolute,to:'2016-06-25 19:20:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="W126" s="48" t="str">
+        <v>N</v>
+      </c>
+      <c r="X126" s="48">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="Y126" s="48">
         <f t="shared" si="69"/>
-        <v>N</v>
-      </c>
-      <c r="X126" s="48">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="Z126" s="48">
         <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="Y126" s="48">
+        <v>23.332000000000001</v>
+      </c>
+      <c r="AA126" s="48">
         <f t="shared" si="71"/>
-        <v>23.293199999999999</v>
-      </c>
-      <c r="Z126" s="48">
-        <f t="shared" si="72"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="AA126" s="48">
-        <f t="shared" si="73"/>
-        <v>23.277200000000001</v>
+        <v>23.287800000000001</v>
       </c>
       <c r="AB126" s="49" t="e">
         <f>VLOOKUP(A126,Enforcements!$C$7:$J$32,8,0)</f>
@@ -14074,34 +14064,34 @@
     </row>
     <row r="127" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="43" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B127" s="43">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="C127" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D127" s="43" t="s">
-        <v>302</v>
+        <v>216</v>
       </c>
       <c r="E127" s="25">
-        <v>42546.745995370373</v>
+        <v>42546.784826388888</v>
       </c>
       <c r="F127" s="25">
-        <v>42546.74722222222</v>
+        <v>42546.785671296297</v>
       </c>
       <c r="G127" s="31">
         <v>1</v>
       </c>
       <c r="H127" s="25" t="s">
-        <v>438</v>
+        <v>103</v>
       </c>
       <c r="I127" s="25">
-        <v>42546.776574074072</v>
+        <v>42546.81585648148</v>
       </c>
       <c r="J127" s="43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K127" s="43" t="str">
         <f t="shared" si="60"/>
@@ -14113,11 +14103,11 @@
       </c>
       <c r="M127" s="11">
         <f t="shared" si="61"/>
-        <v>2.9351851851970423E-2</v>
+        <v>3.0185185183654539E-2</v>
       </c>
       <c r="N127" s="12">
         <f t="shared" si="62"/>
-        <v>42.266666666837409</v>
+        <v>43.466666664462537</v>
       </c>
       <c r="O127" s="12"/>
       <c r="P127" s="12"/>
@@ -14129,35 +14119,35 @@
       </c>
       <c r="T127" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U127" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T127="NorthBound","&gt;=","&lt;=")&amp;Y127,Variables!$M$2:$M$19,IF(T127="NorthBound","&lt;=","&gt;=")&amp;Z127)</f>
         <v>12</v>
       </c>
       <c r="V127" s="48" t="str">
+        <f t="shared" si="72"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 18:49:09-0600',mode:absolute,to:'2016-06-25 19:35:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="W127" s="48" t="str">
         <f t="shared" si="68"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 17:53:14-0600',mode:absolute,to:'2016-06-25 18:39:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="W127" s="48" t="str">
+        <v>N</v>
+      </c>
+      <c r="X127" s="48">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="Y127" s="48">
         <f t="shared" si="69"/>
-        <v>N</v>
-      </c>
-      <c r="X127" s="48">
+        <v>23.299399999999999</v>
+      </c>
+      <c r="Z127" s="48">
         <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="Y127" s="48">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="AA127" s="48">
         <f t="shared" si="71"/>
-        <v>4.4200000000000003E-2</v>
-      </c>
-      <c r="Z127" s="48">
-        <f t="shared" si="72"/>
-        <v>23.332000000000001</v>
-      </c>
-      <c r="AA127" s="48">
-        <f t="shared" si="73"/>
-        <v>23.287800000000001</v>
+        <v>23.2836</v>
       </c>
       <c r="AB127" s="49" t="e">
         <f>VLOOKUP(A127,Enforcements!$C$7:$J$32,8,0)</f>
@@ -14170,90 +14160,90 @@
     </row>
     <row r="128" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="43" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B128" s="43">
-        <v>4026</v>
+        <v>4044</v>
       </c>
       <c r="C128" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D128" s="43" t="s">
-        <v>216</v>
+        <v>290</v>
       </c>
       <c r="E128" s="25">
-        <v>42546.784826388888</v>
+        <v>42546.757141203707</v>
       </c>
       <c r="F128" s="25">
-        <v>42546.785671296297</v>
+        <v>42546.759120370371</v>
       </c>
       <c r="G128" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128" s="25" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="I128" s="25">
-        <v>42546.81585648148</v>
+        <v>42546.786226851851</v>
       </c>
       <c r="J128" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" s="43" t="str">
         <f t="shared" si="60"/>
-        <v>4025/4026</v>
+        <v>4043/4044</v>
       </c>
       <c r="L128" s="43" t="str">
         <f>VLOOKUP(A128,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>WEBSTER</v>
+        <v>BRUDER</v>
       </c>
       <c r="M128" s="11">
         <f t="shared" si="61"/>
-        <v>3.0185185183654539E-2</v>
+        <v>2.7106481480586808E-2</v>
       </c>
       <c r="N128" s="12">
         <f t="shared" si="62"/>
-        <v>43.466666664462537</v>
+        <v>39.033333332045004</v>
       </c>
       <c r="O128" s="12"/>
       <c r="P128" s="12"/>
       <c r="Q128" s="44"/>
       <c r="R128" s="44"/>
       <c r="S128" s="70">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="S128:S156" si="73">SUM(U128:U128)/12</f>
         <v>1</v>
       </c>
       <c r="T128" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U128" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T128="NorthBound","&gt;=","&lt;=")&amp;Y128,Variables!$M$2:$M$19,IF(T128="NorthBound","&lt;=","&gt;=")&amp;Z128)</f>
         <v>12</v>
       </c>
       <c r="V128" s="48" t="str">
+        <f t="shared" si="72"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 18:09:17-0600',mode:absolute,to:'2016-06-25 18:53:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="W128" s="48" t="str">
         <f t="shared" si="68"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 18:49:09-0600',mode:absolute,to:'2016-06-25 19:35:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="W128" s="48" t="str">
+        <v>N</v>
+      </c>
+      <c r="X128" s="48">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="Y128" s="48">
         <f t="shared" si="69"/>
-        <v>N</v>
-      </c>
-      <c r="X128" s="48">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="Z128" s="48">
         <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="Y128" s="48">
+        <v>23.328299999999999</v>
+      </c>
+      <c r="AA128" s="48">
         <f t="shared" si="71"/>
-        <v>23.299399999999999</v>
-      </c>
-      <c r="Z128" s="48">
-        <f t="shared" si="72"/>
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="AA128" s="48">
-        <f t="shared" si="73"/>
-        <v>23.2836</v>
+        <v>23.281699999999997</v>
       </c>
       <c r="AB128" s="49" t="e">
         <f>VLOOKUP(A128,Enforcements!$C$7:$J$32,8,0)</f>
@@ -14266,34 +14256,34 @@
     </row>
     <row r="129" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="43" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B129" s="43">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="C129" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D129" s="43" t="s">
-        <v>290</v>
+        <v>415</v>
       </c>
       <c r="E129" s="25">
-        <v>42546.757141203707</v>
+        <v>42546.793020833335</v>
       </c>
       <c r="F129" s="25">
-        <v>42546.759120370371</v>
+        <v>42546.794259259259</v>
       </c>
       <c r="G129" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129" s="25" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="I129" s="25">
-        <v>42546.786226851851</v>
+        <v>42546.825821759259</v>
       </c>
       <c r="J129" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" s="43" t="str">
         <f t="shared" si="60"/>
@@ -14305,51 +14295,51 @@
       </c>
       <c r="M129" s="11">
         <f t="shared" si="61"/>
-        <v>2.7106481480586808E-2</v>
+        <v>3.1562500000291038E-2</v>
       </c>
       <c r="N129" s="12">
         <f t="shared" si="62"/>
-        <v>39.033333332045004</v>
+        <v>45.450000000419095</v>
       </c>
       <c r="O129" s="12"/>
       <c r="P129" s="12"/>
       <c r="Q129" s="44"/>
       <c r="R129" s="44"/>
       <c r="S129" s="70">
-        <f t="shared" ref="S129:S157" si="74">SUM(U129:U129)/12</f>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T129" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U129" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T129="NorthBound","&gt;=","&lt;=")&amp;Y129,Variables!$M$2:$M$19,IF(T129="NorthBound","&lt;=","&gt;=")&amp;Z129)</f>
         <v>12</v>
       </c>
       <c r="V129" s="48" t="str">
+        <f t="shared" si="72"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 19:00:57-0600',mode:absolute,to:'2016-06-25 19:50:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="W129" s="48" t="str">
         <f t="shared" si="68"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 18:09:17-0600',mode:absolute,to:'2016-06-25 18:53:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="W129" s="48" t="str">
+        <v>N</v>
+      </c>
+      <c r="X129" s="48">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="Y129" s="48">
         <f t="shared" si="69"/>
-        <v>N</v>
-      </c>
-      <c r="X129" s="48">
+        <v>23.299099999999999</v>
+      </c>
+      <c r="Z129" s="48">
         <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="Y129" s="48">
+        <v>1.49E-2</v>
+      </c>
+      <c r="AA129" s="48">
         <f t="shared" si="71"/>
-        <v>4.6600000000000003E-2</v>
-      </c>
-      <c r="Z129" s="48">
-        <f t="shared" si="72"/>
-        <v>23.328299999999999</v>
-      </c>
-      <c r="AA129" s="48">
-        <f t="shared" si="73"/>
-        <v>23.281699999999997</v>
+        <v>23.284199999999998</v>
       </c>
       <c r="AB129" s="49" t="e">
         <f>VLOOKUP(A129,Enforcements!$C$7:$J$32,8,0)</f>
@@ -14362,90 +14352,90 @@
     </row>
     <row r="130" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="43" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B130" s="43">
-        <v>4043</v>
+        <v>4027</v>
       </c>
       <c r="C130" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D130" s="43" t="s">
-        <v>415</v>
+        <v>73</v>
       </c>
       <c r="E130" s="25">
-        <v>42546.793020833335</v>
+        <v>42546.768611111111</v>
       </c>
       <c r="F130" s="25">
-        <v>42546.794259259259</v>
+        <v>42546.770972222221</v>
       </c>
       <c r="G130" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H130" s="25" t="s">
-        <v>76</v>
+        <v>327</v>
       </c>
       <c r="I130" s="25">
-        <v>42546.825821759259</v>
+        <v>42546.804039351853</v>
       </c>
       <c r="J130" s="43">
         <v>0</v>
       </c>
       <c r="K130" s="43" t="str">
         <f t="shared" si="60"/>
-        <v>4043/4044</v>
+        <v>4027/4028</v>
       </c>
       <c r="L130" s="43" t="str">
         <f>VLOOKUP(A130,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>BRUDER</v>
+        <v>CHANDLER</v>
       </c>
       <c r="M130" s="11">
         <f t="shared" si="61"/>
-        <v>3.1562500000291038E-2</v>
+        <v>3.3067129632399883E-2</v>
       </c>
       <c r="N130" s="12">
         <f t="shared" si="62"/>
-        <v>45.450000000419095</v>
+        <v>47.616666670655832</v>
       </c>
       <c r="O130" s="12"/>
       <c r="P130" s="12"/>
       <c r="Q130" s="44"/>
       <c r="R130" s="44"/>
       <c r="S130" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T130" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U130" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T130="NorthBound","&gt;=","&lt;=")&amp;Y130,Variables!$M$2:$M$19,IF(T130="NorthBound","&lt;=","&gt;=")&amp;Z130)</f>
         <v>12</v>
       </c>
       <c r="V130" s="48" t="str">
-        <f t="shared" si="68"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 19:00:57-0600',mode:absolute,to:'2016-06-25 19:50:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="72"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 18:25:48-0600',mode:absolute,to:'2016-06-25 19:18:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W130" s="48" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" ref="W124:W131" si="74">IF(AA130&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X130" s="48">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="Y130" s="48">
-        <f t="shared" si="71"/>
-        <v>23.299099999999999</v>
+        <f t="shared" ref="Y124:Y131" si="75">RIGHT(D130,LEN(D130)-4)/10000</f>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="Z130" s="48">
-        <f t="shared" si="72"/>
-        <v>1.49E-2</v>
+        <f t="shared" ref="Z124:Z131" si="76">RIGHT(H130,LEN(H130)-4)/10000</f>
+        <v>23.331099999999999</v>
       </c>
       <c r="AA130" s="48">
-        <f t="shared" si="73"/>
-        <v>23.284199999999998</v>
+        <f t="shared" ref="AA124:AA131" si="77">ABS(Z130-Y130)</f>
+        <v>23.285399999999999</v>
       </c>
       <c r="AB130" s="49" t="e">
         <f>VLOOKUP(A130,Enforcements!$C$7:$J$32,8,0)</f>
@@ -14458,34 +14448,34 @@
     </row>
     <row r="131" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="43" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B131" s="43">
-        <v>4027</v>
+        <v>4028</v>
       </c>
       <c r="C131" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D131" s="43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E131" s="25">
-        <v>42546.768611111111</v>
+        <v>42546.806863425925</v>
       </c>
       <c r="F131" s="25">
-        <v>42546.770972222221</v>
+        <v>42546.807870370372</v>
       </c>
       <c r="G131" s="31">
+        <v>1</v>
+      </c>
+      <c r="H131" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="I131" s="25">
+        <v>42546.837314814817</v>
+      </c>
+      <c r="J131" s="43">
         <v>3</v>
-      </c>
-      <c r="H131" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="I131" s="25">
-        <v>42546.804039351853</v>
-      </c>
-      <c r="J131" s="43">
-        <v>0</v>
       </c>
       <c r="K131" s="43" t="str">
         <f t="shared" si="60"/>
@@ -14497,192 +14487,192 @@
       </c>
       <c r="M131" s="11">
         <f t="shared" si="61"/>
-        <v>3.3067129632399883E-2</v>
+        <v>2.9444444444379769E-2</v>
       </c>
       <c r="N131" s="12">
         <f t="shared" si="62"/>
-        <v>47.616666670655832</v>
+        <v>42.399999999906868</v>
       </c>
       <c r="O131" s="12"/>
       <c r="P131" s="12"/>
       <c r="Q131" s="44"/>
-      <c r="R131" s="44"/>
+      <c r="R131" s="44" t="s">
+        <v>496</v>
+      </c>
       <c r="S131" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T131" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>NorthBound</v>
+        <v>Southbound</v>
       </c>
       <c r="U131" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T131="NorthBound","&gt;=","&lt;=")&amp;Y131,Variables!$M$2:$M$19,IF(T131="NorthBound","&lt;=","&gt;=")&amp;Z131)</f>
         <v>12</v>
       </c>
       <c r="V131" s="48" t="str">
-        <f t="shared" si="68"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 18:25:48-0600',mode:absolute,to:'2016-06-25 19:18:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="72"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 19:20:53-0600',mode:absolute,to:'2016-06-25 20:06:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W131" s="48" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>N</v>
       </c>
       <c r="X131" s="48">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="Y131" s="48">
-        <f t="shared" si="71"/>
-        <v>4.5699999999999998E-2</v>
+        <f t="shared" si="75"/>
+        <v>23.297699999999999</v>
       </c>
       <c r="Z131" s="48">
-        <f t="shared" si="72"/>
-        <v>23.331099999999999</v>
+        <f t="shared" si="76"/>
+        <v>1.72E-2</v>
       </c>
       <c r="AA131" s="48">
-        <f t="shared" si="73"/>
-        <v>23.285399999999999</v>
-      </c>
-      <c r="AB131" s="49" t="e">
+        <f t="shared" si="77"/>
+        <v>23.2805</v>
+      </c>
+      <c r="AB131" s="49">
         <f>VLOOKUP(A131,Enforcements!$C$7:$J$32,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC131" s="49" t="e">
+        <v>63068</v>
+      </c>
+      <c r="AC131" s="49" t="str">
         <f>VLOOKUP(A131,Enforcements!$C$7:$E$32,3,0)</f>
-        <v>#N/A</v>
+        <v>GRADE CROSSING</v>
       </c>
     </row>
     <row r="132" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="43" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B132" s="43">
-        <v>4028</v>
+        <v>4014</v>
       </c>
       <c r="C132" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D132" s="43" t="s">
-        <v>71</v>
+        <v>290</v>
       </c>
       <c r="E132" s="25">
-        <v>42546.806863425925</v>
+        <v>42546.789548611108</v>
       </c>
       <c r="F132" s="25">
-        <v>42546.807870370372</v>
+        <v>42546.790625000001</v>
       </c>
       <c r="G132" s="31">
         <v>1</v>
       </c>
       <c r="H132" s="25" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="I132" s="25">
-        <v>42546.837314814817</v>
+        <v>42546.817858796298</v>
       </c>
       <c r="J132" s="43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K132" s="43" t="str">
         <f t="shared" si="60"/>
-        <v>4027/4028</v>
+        <v>4013/4014</v>
       </c>
       <c r="L132" s="43" t="str">
         <f>VLOOKUP(A132,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>CHANDLER</v>
+        <v>ADANE</v>
       </c>
       <c r="M132" s="11">
         <f t="shared" si="61"/>
-        <v>2.9444444444379769E-2</v>
+        <v>2.7233796296059154E-2</v>
       </c>
       <c r="N132" s="12">
         <f t="shared" si="62"/>
-        <v>42.399999999906868</v>
+        <v>39.216666666325182</v>
       </c>
       <c r="O132" s="12"/>
       <c r="P132" s="12"/>
       <c r="Q132" s="44"/>
-      <c r="R132" s="44" t="s">
-        <v>496</v>
-      </c>
+      <c r="R132" s="44"/>
       <c r="S132" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T132" s="2" t="str">
         <f t="shared" si="63"/>
-        <v>Southbound</v>
+        <v>NorthBound</v>
       </c>
       <c r="U132" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T132="NorthBound","&gt;=","&lt;=")&amp;Y132,Variables!$M$2:$M$19,IF(T132="NorthBound","&lt;=","&gt;=")&amp;Z132)</f>
         <v>12</v>
       </c>
       <c r="V132" s="48" t="str">
-        <f t="shared" si="68"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 19:20:53-0600',mode:absolute,to:'2016-06-25 20:06:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="64"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 18:55:57-0600',mode:absolute,to:'2016-06-25 19:38:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W132" s="48" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>N</v>
       </c>
       <c r="X132" s="48">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="Y132" s="48">
-        <f t="shared" si="71"/>
-        <v>23.297699999999999</v>
+        <f t="shared" ref="Y132:Y156" si="78">RIGHT(D132,LEN(D132)-4)/10000</f>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="Z132" s="48">
-        <f t="shared" si="72"/>
-        <v>1.72E-2</v>
+        <f t="shared" ref="Z132:Z156" si="79">RIGHT(H132,LEN(H132)-4)/10000</f>
+        <v>23.331399999999999</v>
       </c>
       <c r="AA132" s="48">
-        <f t="shared" si="73"/>
-        <v>23.2805</v>
+        <f t="shared" si="67"/>
+        <v>23.284799999999997</v>
       </c>
       <c r="AB132" s="49">
         <f>VLOOKUP(A132,Enforcements!$C$7:$J$32,8,0)</f>
-        <v>63068</v>
+        <v>27333</v>
       </c>
       <c r="AC132" s="49" t="str">
         <f>VLOOKUP(A132,Enforcements!$C$7:$E$32,3,0)</f>
-        <v>GRADE CROSSING</v>
+        <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
     <row r="133" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="43" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B133" s="43">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="C133" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D133" s="43" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E133" s="25">
-        <v>42546.789548611108</v>
+        <v>42546.828888888886</v>
       </c>
       <c r="F133" s="25">
-        <v>42546.790625000001</v>
+        <v>42546.830034722225</v>
       </c>
       <c r="G133" s="31">
         <v>1</v>
       </c>
       <c r="H133" s="25" t="s">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="I133" s="25">
-        <v>42546.817858796298</v>
+        <v>42546.856689814813</v>
       </c>
       <c r="J133" s="43">
         <v>1</v>
       </c>
       <c r="K133" s="43" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="K133:K156" si="80">IF(ISEVEN(B133),(B133-1)&amp;"/"&amp;B133,B133&amp;"/"&amp;(B133+1))</f>
         <v>4013/4014</v>
       </c>
       <c r="L133" s="43" t="str">
@@ -14690,35 +14680,35 @@
         <v>ADANE</v>
       </c>
       <c r="M133" s="11">
-        <f t="shared" si="61"/>
-        <v>2.7233796296059154E-2</v>
+        <f t="shared" ref="M133:M156" si="81">I133-F133</f>
+        <v>2.6655092588043772E-2</v>
       </c>
       <c r="N133" s="12">
-        <f t="shared" si="62"/>
-        <v>39.216666666325182</v>
+        <f t="shared" ref="N133:N156" si="82">24*60*SUM($M133:$M133)</f>
+        <v>38.383333326783031</v>
       </c>
       <c r="O133" s="12"/>
       <c r="P133" s="12"/>
       <c r="Q133" s="44"/>
       <c r="R133" s="44"/>
       <c r="S133" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T133" s="2" t="str">
-        <f t="shared" si="63"/>
-        <v>NorthBound</v>
+        <f t="shared" ref="T133:T156" si="83">IF(ISEVEN(LEFT(A133,3)),"Southbound","NorthBound")</f>
+        <v>Southbound</v>
       </c>
       <c r="U133" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T133="NorthBound","&gt;=","&lt;=")&amp;Y133,Variables!$M$2:$M$19,IF(T133="NorthBound","&lt;=","&gt;=")&amp;Z133)</f>
         <v>12</v>
       </c>
       <c r="V133" s="48" t="str">
-        <f t="shared" si="64"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 18:55:57-0600',mode:absolute,to:'2016-06-25 19:38:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
+        <f t="shared" ref="V133:V156" si="84">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E133-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I133+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B133&amp;"%22')),sort:!(Time,asc))"</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 19:52:36-0600',mode:absolute,to:'2016-06-25 20:34:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W133" s="48" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="W133:W156" si="85">IF(AA133&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X133" s="48">
@@ -14726,95 +14716,95 @@
         <v>1</v>
       </c>
       <c r="Y133" s="48">
-        <f t="shared" ref="Y133:Y157" si="75">RIGHT(D133,LEN(D133)-4)/10000</f>
-        <v>4.6600000000000003E-2</v>
+        <f t="shared" si="78"/>
+        <v>23.299299999999999</v>
       </c>
       <c r="Z133" s="48">
-        <f t="shared" ref="Z133:Z157" si="76">RIGHT(H133,LEN(H133)-4)/10000</f>
-        <v>23.331399999999999</v>
+        <f t="shared" si="79"/>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="AA133" s="48">
-        <f t="shared" si="67"/>
-        <v>23.284799999999997</v>
-      </c>
-      <c r="AB133" s="49">
+        <f t="shared" ref="AA133:AA156" si="86">ABS(Z133-Y133)</f>
+        <v>23.285699999999999</v>
+      </c>
+      <c r="AB133" s="49" t="e">
         <f>VLOOKUP(A133,Enforcements!$C$7:$J$32,8,0)</f>
-        <v>27333</v>
-      </c>
-      <c r="AC133" s="49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC133" s="49" t="e">
         <f>VLOOKUP(A133,Enforcements!$C$7:$E$32,3,0)</f>
-        <v>PERMANENT SPEED RESTRICTION</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="134" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="43" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B134" s="43">
-        <v>4013</v>
+        <v>4042</v>
       </c>
       <c r="C134" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D134" s="43" t="s">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c r="E134" s="25">
-        <v>42546.828888888886</v>
+        <v>42546.807395833333</v>
       </c>
       <c r="F134" s="25">
-        <v>42546.830034722225</v>
+        <v>42546.808321759258</v>
       </c>
       <c r="G134" s="31">
         <v>1</v>
       </c>
       <c r="H134" s="25" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="I134" s="25">
-        <v>42546.856689814813</v>
+        <v>42546.838391203702</v>
       </c>
       <c r="J134" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134" s="43" t="str">
-        <f t="shared" ref="K134:K157" si="77">IF(ISEVEN(B134),(B134-1)&amp;"/"&amp;B134,B134&amp;"/"&amp;(B134+1))</f>
-        <v>4013/4014</v>
+        <f t="shared" si="80"/>
+        <v>4041/4042</v>
       </c>
       <c r="L134" s="43" t="str">
         <f>VLOOKUP(A134,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>ADANE</v>
+        <v>LEVERE</v>
       </c>
       <c r="M134" s="11">
-        <f t="shared" ref="M134:M157" si="78">I134-F134</f>
-        <v>2.6655092588043772E-2</v>
+        <f t="shared" si="81"/>
+        <v>3.0069444444961846E-2</v>
       </c>
       <c r="N134" s="12">
-        <f t="shared" ref="N134:N157" si="79">24*60*SUM($M134:$M134)</f>
-        <v>38.383333326783031</v>
+        <f t="shared" si="82"/>
+        <v>43.300000000745058</v>
       </c>
       <c r="O134" s="12"/>
       <c r="P134" s="12"/>
       <c r="Q134" s="44"/>
       <c r="R134" s="44"/>
       <c r="S134" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T134" s="2" t="str">
-        <f t="shared" ref="T134:T157" si="80">IF(ISEVEN(LEFT(A134,3)),"Southbound","NorthBound")</f>
-        <v>Southbound</v>
+        <f t="shared" si="83"/>
+        <v>NorthBound</v>
       </c>
       <c r="U134" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T134="NorthBound","&gt;=","&lt;=")&amp;Y134,Variables!$M$2:$M$19,IF(T134="NorthBound","&lt;=","&gt;=")&amp;Z134)</f>
         <v>12</v>
       </c>
       <c r="V134" s="48" t="str">
-        <f t="shared" ref="V134:V157" si="81">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E134-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I134+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B134&amp;"%22')),sort:!(Time,asc))"</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 19:52:36-0600',mode:absolute,to:'2016-06-25 20:34:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 19:21:39-0600',mode:absolute,to:'2016-06-25 20:08:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W134" s="48" t="str">
-        <f t="shared" ref="W134:W157" si="82">IF(AA134&lt;23,"Y","N")</f>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X134" s="48">
@@ -14822,16 +14812,16 @@
         <v>1</v>
       </c>
       <c r="Y134" s="48">
-        <f t="shared" si="75"/>
-        <v>23.299299999999999</v>
+        <f t="shared" si="78"/>
+        <v>4.4699999999999997E-2</v>
       </c>
       <c r="Z134" s="48">
-        <f t="shared" si="76"/>
-        <v>1.3599999999999999E-2</v>
+        <f t="shared" si="79"/>
+        <v>23.328399999999998</v>
       </c>
       <c r="AA134" s="48">
-        <f t="shared" ref="AA134:AA157" si="83">ABS(Z134-Y134)</f>
-        <v>23.285699999999999</v>
+        <f t="shared" si="86"/>
+        <v>23.2837</v>
       </c>
       <c r="AB134" s="49" t="e">
         <f>VLOOKUP(A134,Enforcements!$C$7:$J$32,8,0)</f>
@@ -14844,37 +14834,37 @@
     </row>
     <row r="135" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="43" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B135" s="43">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="C135" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D135" s="43" t="s">
-        <v>102</v>
+        <v>448</v>
       </c>
       <c r="E135" s="25">
-        <v>42546.807395833333</v>
+        <v>42546.842847222222</v>
       </c>
       <c r="F135" s="25">
-        <v>42546.808321759258</v>
-      </c>
-      <c r="G135" s="31">
+        <v>42546.843923611108</v>
+      </c>
+      <c r="G135" s="25">
         <v>1</v>
       </c>
       <c r="H135" s="25" t="s">
-        <v>198</v>
+        <v>68</v>
       </c>
       <c r="I135" s="25">
-        <v>42546.838391203702</v>
+        <v>42546.879131944443</v>
       </c>
       <c r="J135" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" s="43" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>4041/4042</v>
       </c>
       <c r="L135" s="43" t="str">
@@ -14882,35 +14872,35 @@
         <v>LEVERE</v>
       </c>
       <c r="M135" s="11">
-        <f t="shared" si="78"/>
-        <v>3.0069444444961846E-2</v>
+        <f t="shared" si="81"/>
+        <v>3.5208333334594499E-2</v>
       </c>
       <c r="N135" s="12">
-        <f t="shared" si="79"/>
-        <v>43.300000000745058</v>
+        <f t="shared" si="82"/>
+        <v>50.700000001816079</v>
       </c>
       <c r="O135" s="12"/>
       <c r="P135" s="12"/>
       <c r="Q135" s="44"/>
       <c r="R135" s="44"/>
       <c r="S135" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T135" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>NorthBound</v>
+        <f t="shared" si="83"/>
+        <v>Southbound</v>
       </c>
       <c r="U135" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T135="NorthBound","&gt;=","&lt;=")&amp;Y135,Variables!$M$2:$M$19,IF(T135="NorthBound","&lt;=","&gt;=")&amp;Z135)</f>
         <v>12</v>
       </c>
       <c r="V135" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 19:21:39-0600',mode:absolute,to:'2016-06-25 20:08:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 20:12:42-0600',mode:absolute,to:'2016-06-25 21:06:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W135" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X135" s="48">
@@ -14918,16 +14908,16 @@
         <v>1</v>
       </c>
       <c r="Y135" s="48">
-        <f t="shared" si="75"/>
-        <v>4.4699999999999997E-2</v>
+        <f t="shared" si="78"/>
+        <v>23.296700000000001</v>
       </c>
       <c r="Z135" s="48">
-        <f t="shared" si="76"/>
-        <v>23.328399999999998</v>
+        <f t="shared" si="79"/>
+        <v>1.6E-2</v>
       </c>
       <c r="AA135" s="48">
-        <f t="shared" si="83"/>
-        <v>23.2837</v>
+        <f t="shared" si="86"/>
+        <v>23.280700000000003</v>
       </c>
       <c r="AB135" s="49" t="e">
         <f>VLOOKUP(A135,Enforcements!$C$7:$J$32,8,0)</f>
@@ -14940,73 +14930,73 @@
     </row>
     <row r="136" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="43" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B136" s="43">
-        <v>4041</v>
+        <v>4044</v>
       </c>
       <c r="C136" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D136" s="43" t="s">
-        <v>448</v>
+        <v>83</v>
       </c>
       <c r="E136" s="25">
-        <v>42546.842847222222</v>
+        <v>42546.827615740738</v>
       </c>
       <c r="F136" s="25">
-        <v>42546.843923611108</v>
+        <v>42546.828703703701</v>
       </c>
       <c r="G136" s="25">
         <v>1</v>
       </c>
       <c r="H136" s="25" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="I136" s="25">
-        <v>42546.879131944443</v>
+        <v>42546.864918981482</v>
       </c>
       <c r="J136" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136" s="43" t="str">
-        <f t="shared" si="77"/>
-        <v>4041/4042</v>
+        <f t="shared" si="80"/>
+        <v>4043/4044</v>
       </c>
       <c r="L136" s="43" t="str">
         <f>VLOOKUP(A136,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>LEVERE</v>
+        <v>BRUDER</v>
       </c>
       <c r="M136" s="11">
-        <f t="shared" si="78"/>
-        <v>3.5208333334594499E-2</v>
+        <f t="shared" si="81"/>
+        <v>3.6215277781593613E-2</v>
       </c>
       <c r="N136" s="12">
-        <f t="shared" si="79"/>
-        <v>50.700000001816079</v>
+        <f t="shared" si="82"/>
+        <v>52.150000005494803</v>
       </c>
       <c r="O136" s="12"/>
       <c r="P136" s="12"/>
       <c r="Q136" s="44"/>
       <c r="R136" s="44"/>
       <c r="S136" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T136" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>Southbound</v>
+        <f t="shared" si="83"/>
+        <v>NorthBound</v>
       </c>
       <c r="U136" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T136="NorthBound","&gt;=","&lt;=")&amp;Y136,Variables!$M$2:$M$19,IF(T136="NorthBound","&lt;=","&gt;=")&amp;Z136)</f>
         <v>12</v>
       </c>
       <c r="V136" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 20:12:42-0600',mode:absolute,to:'2016-06-25 21:06:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 19:50:46-0600',mode:absolute,to:'2016-06-25 20:46:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W136" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X136" s="48">
@@ -15014,16 +15004,16 @@
         <v>1</v>
       </c>
       <c r="Y136" s="48">
-        <f t="shared" si="75"/>
-        <v>23.296700000000001</v>
+        <f t="shared" si="78"/>
+        <v>4.58E-2</v>
       </c>
       <c r="Z136" s="48">
-        <f t="shared" si="76"/>
-        <v>1.6E-2</v>
+        <f t="shared" si="79"/>
+        <v>23.3307</v>
       </c>
       <c r="AA136" s="48">
-        <f t="shared" si="83"/>
-        <v>23.280700000000003</v>
+        <f t="shared" si="86"/>
+        <v>23.2849</v>
       </c>
       <c r="AB136" s="49" t="e">
         <f>VLOOKUP(A136,Enforcements!$C$7:$J$32,8,0)</f>
@@ -15036,37 +15026,37 @@
     </row>
     <row r="137" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="43" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B137" s="43">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="C137" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D137" s="43" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="E137" s="25">
-        <v>42546.827615740738</v>
+        <v>42546.866770833331</v>
       </c>
       <c r="F137" s="25">
-        <v>42546.828703703701</v>
+        <v>42546.868634259263</v>
       </c>
       <c r="G137" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H137" s="25" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="I137" s="25">
-        <v>42546.864918981482</v>
+        <v>42546.899456018517</v>
       </c>
       <c r="J137" s="43">
         <v>0</v>
       </c>
       <c r="K137" s="43" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>4043/4044</v>
       </c>
       <c r="L137" s="43" t="str">
@@ -15074,35 +15064,35 @@
         <v>BRUDER</v>
       </c>
       <c r="M137" s="11">
-        <f t="shared" si="78"/>
-        <v>3.6215277781593613E-2</v>
+        <f t="shared" si="81"/>
+        <v>3.0821759253740311E-2</v>
       </c>
       <c r="N137" s="12">
-        <f t="shared" si="79"/>
-        <v>52.150000005494803</v>
+        <f t="shared" si="82"/>
+        <v>44.383333325386047</v>
       </c>
       <c r="O137" s="12"/>
       <c r="P137" s="12"/>
       <c r="Q137" s="44"/>
       <c r="R137" s="44"/>
       <c r="S137" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T137" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>NorthBound</v>
+        <f t="shared" si="83"/>
+        <v>Southbound</v>
       </c>
       <c r="U137" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T137="NorthBound","&gt;=","&lt;=")&amp;Y137,Variables!$M$2:$M$19,IF(T137="NorthBound","&lt;=","&gt;=")&amp;Z137)</f>
         <v>12</v>
       </c>
       <c r="V137" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 19:50:46-0600',mode:absolute,to:'2016-06-25 20:46:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 20:47:09-0600',mode:absolute,to:'2016-06-25 21:36:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W137" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X137" s="48">
@@ -15110,16 +15100,16 @@
         <v>1</v>
       </c>
       <c r="Y137" s="48">
-        <f t="shared" si="75"/>
-        <v>4.58E-2</v>
+        <f t="shared" si="78"/>
+        <v>23.298400000000001</v>
       </c>
       <c r="Z137" s="48">
-        <f t="shared" si="76"/>
-        <v>23.3307</v>
+        <f t="shared" si="79"/>
+        <v>1.52E-2</v>
       </c>
       <c r="AA137" s="48">
-        <f t="shared" si="83"/>
-        <v>23.2849</v>
+        <f t="shared" si="86"/>
+        <v>23.283200000000001</v>
       </c>
       <c r="AB137" s="49" t="e">
         <f>VLOOKUP(A137,Enforcements!$C$7:$J$32,8,0)</f>
@@ -15132,73 +15122,73 @@
     </row>
     <row r="138" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="43" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B138" s="43">
-        <v>4043</v>
+        <v>4027</v>
       </c>
       <c r="C138" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D138" s="43" t="s">
-        <v>214</v>
+        <v>87</v>
       </c>
       <c r="E138" s="25">
-        <v>42546.866770833331</v>
+        <v>42546.850462962961</v>
       </c>
       <c r="F138" s="25">
-        <v>42546.868634259263</v>
+        <v>42546.852060185185</v>
       </c>
       <c r="G138" s="25">
         <v>2</v>
       </c>
       <c r="H138" s="25" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="I138" s="25">
-        <v>42546.899456018517</v>
+        <v>42546.880879629629</v>
       </c>
       <c r="J138" s="43">
         <v>0</v>
       </c>
       <c r="K138" s="43" t="str">
-        <f t="shared" si="77"/>
-        <v>4043/4044</v>
+        <f t="shared" si="80"/>
+        <v>4027/4028</v>
       </c>
       <c r="L138" s="43" t="str">
         <f>VLOOKUP(A138,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>BRUDER</v>
+        <v>CHANDLER</v>
       </c>
       <c r="M138" s="11">
-        <f t="shared" si="78"/>
-        <v>3.0821759253740311E-2</v>
+        <f t="shared" si="81"/>
+        <v>2.8819444443797693E-2</v>
       </c>
       <c r="N138" s="12">
-        <f t="shared" si="79"/>
-        <v>44.383333325386047</v>
+        <f t="shared" si="82"/>
+        <v>41.499999999068677</v>
       </c>
       <c r="O138" s="12"/>
       <c r="P138" s="12"/>
       <c r="Q138" s="44"/>
       <c r="R138" s="44"/>
       <c r="S138" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T138" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>Southbound</v>
+        <f t="shared" si="83"/>
+        <v>NorthBound</v>
       </c>
       <c r="U138" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T138="NorthBound","&gt;=","&lt;=")&amp;Y138,Variables!$M$2:$M$19,IF(T138="NorthBound","&lt;=","&gt;=")&amp;Z138)</f>
         <v>12</v>
       </c>
       <c r="V138" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 20:47:09-0600',mode:absolute,to:'2016-06-25 21:36:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 20:23:40-0600',mode:absolute,to:'2016-06-25 21:09:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W138" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X138" s="48">
@@ -15206,16 +15196,16 @@
         <v>1</v>
       </c>
       <c r="Y138" s="48">
-        <f t="shared" si="75"/>
-        <v>23.298400000000001</v>
+        <f t="shared" si="78"/>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="Z138" s="48">
-        <f t="shared" si="76"/>
-        <v>1.52E-2</v>
+        <f t="shared" si="79"/>
+        <v>23.33</v>
       </c>
       <c r="AA138" s="48">
-        <f t="shared" si="83"/>
-        <v>23.283200000000001</v>
+        <f t="shared" si="86"/>
+        <v>23.2836</v>
       </c>
       <c r="AB138" s="49" t="e">
         <f>VLOOKUP(A138,Enforcements!$C$7:$J$32,8,0)</f>
@@ -15228,61 +15218,61 @@
     </row>
     <row r="139" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="43" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B139" s="43">
-        <v>4027</v>
+        <v>4014</v>
       </c>
       <c r="C139" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D139" s="43" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="E139" s="25">
-        <v>42546.850462962961</v>
+        <v>42546.87091435185</v>
       </c>
       <c r="F139" s="25">
-        <v>42546.852060185185</v>
+        <v>42546.871863425928</v>
       </c>
       <c r="G139" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" s="25" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="I139" s="25">
-        <v>42546.880879629629</v>
+        <v>42546.90047453704</v>
       </c>
       <c r="J139" s="43">
         <v>0</v>
       </c>
       <c r="K139" s="43" t="str">
-        <f t="shared" si="77"/>
-        <v>4027/4028</v>
+        <f t="shared" si="80"/>
+        <v>4013/4014</v>
       </c>
       <c r="L139" s="43" t="str">
         <f>VLOOKUP(A139,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>CHANDLER</v>
+        <v>ADANE</v>
       </c>
       <c r="M139" s="11">
-        <f t="shared" si="78"/>
-        <v>2.8819444443797693E-2</v>
+        <f t="shared" si="81"/>
+        <v>2.8611111112695653E-2</v>
       </c>
       <c r="N139" s="12">
-        <f t="shared" si="79"/>
-        <v>41.499999999068677</v>
+        <f t="shared" si="82"/>
+        <v>41.20000000228174</v>
       </c>
       <c r="O139" s="12"/>
       <c r="P139" s="12"/>
       <c r="Q139" s="44"/>
       <c r="R139" s="44"/>
       <c r="S139" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T139" s="2" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>NorthBound</v>
       </c>
       <c r="U139" s="2">
@@ -15290,28 +15280,28 @@
         <v>12</v>
       </c>
       <c r="V139" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 20:23:40-0600',mode:absolute,to:'2016-06-25 21:09:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 20:53:07-0600',mode:absolute,to:'2016-06-25 21:37:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W139" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X139" s="48">
         <f t="shared" si="66"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y139" s="48">
-        <f t="shared" si="75"/>
-        <v>4.6399999999999997E-2</v>
+        <f t="shared" si="78"/>
+        <v>4.6699999999999998E-2</v>
       </c>
       <c r="Z139" s="48">
-        <f t="shared" si="76"/>
-        <v>23.33</v>
+        <f t="shared" si="79"/>
+        <v>23.329499999999999</v>
       </c>
       <c r="AA139" s="48">
-        <f t="shared" si="83"/>
-        <v>23.2836</v>
+        <f t="shared" si="86"/>
+        <v>23.282799999999998</v>
       </c>
       <c r="AB139" s="49" t="e">
         <f>VLOOKUP(A139,Enforcements!$C$7:$J$32,8,0)</f>
@@ -15324,37 +15314,37 @@
     </row>
     <row r="140" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="43" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B140" s="43">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="C140" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D140" s="43" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="E140" s="25">
-        <v>42546.87091435185</v>
+        <v>42546.910949074074</v>
       </c>
       <c r="F140" s="25">
-        <v>42546.871863425928</v>
+        <v>42546.9141087963</v>
       </c>
       <c r="G140" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H140" s="25" t="s">
-        <v>101</v>
+        <v>285</v>
       </c>
       <c r="I140" s="25">
-        <v>42546.90047453704</v>
+        <v>42546.941006944442</v>
       </c>
       <c r="J140" s="43">
         <v>0</v>
       </c>
       <c r="K140" s="43" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>4013/4014</v>
       </c>
       <c r="L140" s="43" t="str">
@@ -15362,52 +15352,52 @@
         <v>ADANE</v>
       </c>
       <c r="M140" s="11">
-        <f t="shared" si="78"/>
-        <v>2.8611111112695653E-2</v>
+        <f t="shared" si="81"/>
+        <v>2.6898148142208811E-2</v>
       </c>
       <c r="N140" s="12">
-        <f t="shared" si="79"/>
-        <v>41.20000000228174</v>
+        <f t="shared" si="82"/>
+        <v>38.733333324780688</v>
       </c>
       <c r="O140" s="12"/>
       <c r="P140" s="12"/>
       <c r="Q140" s="44"/>
       <c r="R140" s="44"/>
       <c r="S140" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T140" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>NorthBound</v>
+        <f t="shared" si="83"/>
+        <v>Southbound</v>
       </c>
       <c r="U140" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T140="NorthBound","&gt;=","&lt;=")&amp;Y140,Variables!$M$2:$M$19,IF(T140="NorthBound","&lt;=","&gt;=")&amp;Z140)</f>
         <v>12</v>
       </c>
       <c r="V140" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 20:53:07-0600',mode:absolute,to:'2016-06-25 21:37:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 21:50:46-0600',mode:absolute,to:'2016-06-25 22:36:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W140" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X140" s="48">
         <f t="shared" si="66"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y140" s="48">
-        <f t="shared" si="75"/>
-        <v>4.6699999999999998E-2</v>
+        <f t="shared" si="78"/>
+        <v>23.297499999999999</v>
       </c>
       <c r="Z140" s="48">
-        <f t="shared" si="76"/>
-        <v>23.329499999999999</v>
+        <f t="shared" si="79"/>
+        <v>1.38E-2</v>
       </c>
       <c r="AA140" s="48">
-        <f t="shared" si="83"/>
-        <v>23.282799999999998</v>
+        <f t="shared" si="86"/>
+        <v>23.2837</v>
       </c>
       <c r="AB140" s="49" t="e">
         <f>VLOOKUP(A140,Enforcements!$C$7:$J$32,8,0)</f>
@@ -15420,73 +15410,73 @@
     </row>
     <row r="141" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="43" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B141" s="43">
-        <v>4013</v>
+        <v>4042</v>
       </c>
       <c r="C141" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D141" s="43" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="E141" s="25">
-        <v>42546.910949074074</v>
+        <v>42546.889085648145</v>
       </c>
       <c r="F141" s="25">
-        <v>42546.9141087963</v>
+        <v>42546.889826388891</v>
       </c>
       <c r="G141" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H141" s="25" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="I141" s="25">
-        <v>42546.941006944442</v>
+        <v>42546.922592592593</v>
       </c>
       <c r="J141" s="43">
         <v>0</v>
       </c>
       <c r="K141" s="43" t="str">
-        <f t="shared" si="77"/>
-        <v>4013/4014</v>
+        <f t="shared" si="80"/>
+        <v>4041/4042</v>
       </c>
       <c r="L141" s="43" t="str">
         <f>VLOOKUP(A141,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>ADANE</v>
+        <v>LEVERE</v>
       </c>
       <c r="M141" s="11">
-        <f t="shared" si="78"/>
-        <v>2.6898148142208811E-2</v>
+        <f t="shared" si="81"/>
+        <v>3.276620370161254E-2</v>
       </c>
       <c r="N141" s="12">
-        <f t="shared" si="79"/>
-        <v>38.733333324780688</v>
+        <f t="shared" si="82"/>
+        <v>47.183333330322057</v>
       </c>
       <c r="O141" s="12"/>
       <c r="P141" s="12"/>
       <c r="Q141" s="44"/>
       <c r="R141" s="44"/>
       <c r="S141" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T141" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>Southbound</v>
+        <f t="shared" si="83"/>
+        <v>NorthBound</v>
       </c>
       <c r="U141" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T141="NorthBound","&gt;=","&lt;=")&amp;Y141,Variables!$M$2:$M$19,IF(T141="NorthBound","&lt;=","&gt;=")&amp;Z141)</f>
         <v>12</v>
       </c>
       <c r="V141" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 21:50:46-0600',mode:absolute,to:'2016-06-25 22:36:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 21:19:17-0600',mode:absolute,to:'2016-06-25 22:09:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W141" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X141" s="48">
@@ -15494,16 +15484,16 @@
         <v>1</v>
       </c>
       <c r="Y141" s="48">
-        <f t="shared" si="75"/>
-        <v>23.297499999999999</v>
+        <f t="shared" si="78"/>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="Z141" s="48">
-        <f t="shared" si="76"/>
-        <v>1.38E-2</v>
+        <f t="shared" si="79"/>
+        <v>23.3276</v>
       </c>
       <c r="AA141" s="48">
-        <f t="shared" si="83"/>
-        <v>23.2837</v>
+        <f t="shared" si="86"/>
+        <v>23.279800000000002</v>
       </c>
       <c r="AB141" s="49" t="e">
         <f>VLOOKUP(A141,Enforcements!$C$7:$J$32,8,0)</f>
@@ -15516,37 +15506,37 @@
     </row>
     <row r="142" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="43" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B142" s="43">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="C142" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D142" s="43" t="s">
-        <v>213</v>
+        <v>456</v>
       </c>
       <c r="E142" s="25">
-        <v>42546.889085648145</v>
+        <v>42546.929050925923</v>
       </c>
       <c r="F142" s="25">
-        <v>42546.889826388891</v>
+        <v>42546.930150462962</v>
       </c>
       <c r="G142" s="25">
         <v>1</v>
       </c>
       <c r="H142" s="25" t="s">
-        <v>215</v>
+        <v>457</v>
       </c>
       <c r="I142" s="25">
-        <v>42546.922592592593</v>
+        <v>42546.964201388888</v>
       </c>
       <c r="J142" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" s="43" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>4041/4042</v>
       </c>
       <c r="L142" s="43" t="str">
@@ -15554,35 +15544,35 @@
         <v>LEVERE</v>
       </c>
       <c r="M142" s="11">
-        <f t="shared" si="78"/>
-        <v>3.276620370161254E-2</v>
+        <f t="shared" si="81"/>
+        <v>3.4050925925839692E-2</v>
       </c>
       <c r="N142" s="12">
-        <f t="shared" si="79"/>
-        <v>47.183333330322057</v>
+        <f t="shared" si="82"/>
+        <v>49.033333333209157</v>
       </c>
       <c r="O142" s="12"/>
       <c r="P142" s="12"/>
       <c r="Q142" s="44"/>
       <c r="R142" s="44"/>
       <c r="S142" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T142" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>NorthBound</v>
+        <f t="shared" si="83"/>
+        <v>Southbound</v>
       </c>
       <c r="U142" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T142="NorthBound","&gt;=","&lt;=")&amp;Y142,Variables!$M$2:$M$19,IF(T142="NorthBound","&lt;=","&gt;=")&amp;Z142)</f>
         <v>12</v>
       </c>
       <c r="V142" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 21:19:17-0600',mode:absolute,to:'2016-06-25 22:09:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 22:16:50-0600',mode:absolute,to:'2016-06-25 23:09:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W142" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X142" s="48">
@@ -15590,16 +15580,16 @@
         <v>1</v>
       </c>
       <c r="Y142" s="48">
-        <f t="shared" si="75"/>
-        <v>4.7800000000000002E-2</v>
+        <f t="shared" si="78"/>
+        <v>23.295999999999999</v>
       </c>
       <c r="Z142" s="48">
-        <f t="shared" si="76"/>
-        <v>23.3276</v>
+        <f t="shared" si="79"/>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="AA142" s="48">
-        <f t="shared" si="83"/>
-        <v>23.279800000000002</v>
+        <f t="shared" si="86"/>
+        <v>23.278600000000001</v>
       </c>
       <c r="AB142" s="49" t="e">
         <f>VLOOKUP(A142,Enforcements!$C$7:$J$32,8,0)</f>
@@ -15612,73 +15602,75 @@
     </row>
     <row r="143" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="43" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B143" s="43">
-        <v>4041</v>
+        <v>4044</v>
       </c>
       <c r="C143" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D143" s="43" t="s">
-        <v>456</v>
+        <v>69</v>
       </c>
       <c r="E143" s="25">
-        <v>42546.929050925923</v>
+        <v>42546.908622685187</v>
       </c>
       <c r="F143" s="25">
-        <v>42546.930150462962</v>
+        <v>42546.909918981481</v>
       </c>
       <c r="G143" s="25">
         <v>1</v>
       </c>
       <c r="H143" s="25" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I143" s="25">
-        <v>42546.964201388888</v>
+        <v>42546.944525462961</v>
       </c>
       <c r="J143" s="43">
         <v>1</v>
       </c>
       <c r="K143" s="43" t="str">
-        <f t="shared" si="77"/>
-        <v>4041/4042</v>
+        <f t="shared" si="80"/>
+        <v>4043/4044</v>
       </c>
       <c r="L143" s="43" t="str">
         <f>VLOOKUP(A143,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>LEVERE</v>
+        <v>BRUDER</v>
       </c>
       <c r="M143" s="11">
-        <f t="shared" si="78"/>
-        <v>3.4050925925839692E-2</v>
+        <f t="shared" si="81"/>
+        <v>3.460648148029577E-2</v>
       </c>
       <c r="N143" s="12">
-        <f t="shared" si="79"/>
-        <v>49.033333333209157</v>
+        <f t="shared" si="82"/>
+        <v>49.833333331625909</v>
       </c>
       <c r="O143" s="12"/>
       <c r="P143" s="12"/>
       <c r="Q143" s="44"/>
-      <c r="R143" s="44"/>
+      <c r="R143" s="44" t="s">
+        <v>495</v>
+      </c>
       <c r="S143" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T143" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>Southbound</v>
+        <f t="shared" si="83"/>
+        <v>NorthBound</v>
       </c>
       <c r="U143" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T143="NorthBound","&gt;=","&lt;=")&amp;Y143,Variables!$M$2:$M$19,IF(T143="NorthBound","&lt;=","&gt;=")&amp;Z143)</f>
         <v>12</v>
       </c>
       <c r="V143" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 22:16:50-0600',mode:absolute,to:'2016-06-25 23:09:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 21:47:25-0600',mode:absolute,to:'2016-06-25 22:41:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W143" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X143" s="48">
@@ -15686,59 +15678,59 @@
         <v>1</v>
       </c>
       <c r="Y143" s="48">
-        <f t="shared" si="75"/>
-        <v>23.295999999999999</v>
+        <f t="shared" si="78"/>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="Z143" s="48">
-        <f t="shared" si="76"/>
-        <v>1.7399999999999999E-2</v>
+        <f t="shared" si="79"/>
+        <v>23.327200000000001</v>
       </c>
       <c r="AA143" s="48">
-        <f t="shared" si="83"/>
-        <v>23.278600000000001</v>
-      </c>
-      <c r="AB143" s="49" t="e">
+        <f t="shared" si="86"/>
+        <v>23.281200000000002</v>
+      </c>
+      <c r="AB143" s="49">
         <f>VLOOKUP(A143,Enforcements!$C$7:$J$32,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC143" s="49" t="e">
+        <v>110617</v>
+      </c>
+      <c r="AC143" s="49" t="str">
         <f>VLOOKUP(A143,Enforcements!$C$7:$E$32,3,0)</f>
-        <v>#N/A</v>
+        <v>EQUIPMENT RESTRICTION</v>
       </c>
     </row>
     <row r="144" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="43" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B144" s="43">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="C144" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D144" s="43" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="E144" s="25">
-        <v>42546.908622685187</v>
+        <v>42546.950937499998</v>
       </c>
       <c r="F144" s="25">
-        <v>42546.909918981481</v>
+        <v>42546.951828703706</v>
       </c>
       <c r="G144" s="25">
         <v>1</v>
       </c>
       <c r="H144" s="25" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I144" s="25">
-        <v>42546.944525462961</v>
+        <v>42546.982430555552</v>
       </c>
       <c r="J144" s="43">
         <v>1</v>
       </c>
       <c r="K144" s="43" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>4043/4044</v>
       </c>
       <c r="L144" s="43" t="str">
@@ -15746,150 +15738,148 @@
         <v>BRUDER</v>
       </c>
       <c r="M144" s="11">
-        <f t="shared" si="78"/>
-        <v>3.460648148029577E-2</v>
+        <f t="shared" si="81"/>
+        <v>3.0601851845858619E-2</v>
       </c>
       <c r="N144" s="12">
-        <f t="shared" si="79"/>
-        <v>49.833333331625909</v>
+        <f t="shared" si="82"/>
+        <v>44.066666658036411</v>
       </c>
       <c r="O144" s="12"/>
       <c r="P144" s="12"/>
       <c r="Q144" s="44"/>
-      <c r="R144" s="44" t="s">
-        <v>495</v>
-      </c>
+      <c r="R144" s="44"/>
       <c r="S144" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T144" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>NorthBound</v>
+        <f t="shared" si="83"/>
+        <v>Southbound</v>
       </c>
       <c r="U144" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T144="NorthBound","&gt;=","&lt;=")&amp;Y144,Variables!$M$2:$M$19,IF(T144="NorthBound","&lt;=","&gt;=")&amp;Z144)</f>
         <v>12</v>
       </c>
       <c r="V144" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 21:47:25-0600',mode:absolute,to:'2016-06-25 22:41:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 22:48:21-0600',mode:absolute,to:'2016-06-25 23:35:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W144" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X144" s="48">
-        <f t="shared" si="66"/>
+        <f t="shared" ref="X144:X150" si="87">VALUE(LEFT(A144,3))-VALUE(LEFT(A143,3))</f>
         <v>1</v>
       </c>
       <c r="Y144" s="48">
-        <f t="shared" si="75"/>
-        <v>4.5999999999999999E-2</v>
+        <f t="shared" ref="Y144:Y150" si="88">RIGHT(D144,LEN(D144)-4)/10000</f>
+        <v>23.298200000000001</v>
       </c>
       <c r="Z144" s="48">
-        <f t="shared" si="76"/>
-        <v>23.327200000000001</v>
+        <f t="shared" ref="Z144:Z150" si="89">RIGHT(H144,LEN(H144)-4)/10000</f>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="AA144" s="48">
-        <f t="shared" si="83"/>
-        <v>23.281200000000002</v>
-      </c>
-      <c r="AB144" s="49">
+        <f t="shared" ref="AA144:AA150" si="90">ABS(Z144-Y144)</f>
+        <v>23.277100000000001</v>
+      </c>
+      <c r="AB144" s="49" t="e">
         <f>VLOOKUP(A144,Enforcements!$C$7:$J$32,8,0)</f>
-        <v>110617</v>
-      </c>
-      <c r="AC144" s="49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC144" s="49" t="e">
         <f>VLOOKUP(A144,Enforcements!$C$7:$E$32,3,0)</f>
-        <v>EQUIPMENT RESTRICTION</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="145" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="43" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B145" s="43">
-        <v>4043</v>
+        <v>4027</v>
       </c>
       <c r="C145" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D145" s="43" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E145" s="25">
-        <v>42546.950937499998</v>
+        <v>42546.934733796297</v>
       </c>
       <c r="F145" s="25">
-        <v>42546.951828703706</v>
+        <v>42546.935833333337</v>
       </c>
       <c r="G145" s="25">
         <v>1</v>
       </c>
       <c r="H145" s="25" t="s">
-        <v>461</v>
+        <v>101</v>
       </c>
       <c r="I145" s="25">
-        <v>42546.982430555552</v>
+        <v>42546.963784722226</v>
       </c>
       <c r="J145" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" s="43" t="str">
-        <f t="shared" si="77"/>
-        <v>4043/4044</v>
+        <f t="shared" si="80"/>
+        <v>4027/4028</v>
       </c>
       <c r="L145" s="43" t="str">
         <f>VLOOKUP(A145,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>BRUDER</v>
+        <v>CHANDLER</v>
       </c>
       <c r="M145" s="11">
-        <f t="shared" si="78"/>
-        <v>3.0601851845858619E-2</v>
+        <f t="shared" si="81"/>
+        <v>2.7951388889050577E-2</v>
       </c>
       <c r="N145" s="12">
-        <f t="shared" si="79"/>
-        <v>44.066666658036411</v>
+        <f t="shared" si="82"/>
+        <v>40.250000000232831</v>
       </c>
       <c r="O145" s="12"/>
       <c r="P145" s="12"/>
       <c r="Q145" s="44"/>
       <c r="R145" s="44"/>
       <c r="S145" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T145" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>Southbound</v>
+        <f t="shared" si="83"/>
+        <v>NorthBound</v>
       </c>
       <c r="U145" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T145="NorthBound","&gt;=","&lt;=")&amp;Y145,Variables!$M$2:$M$19,IF(T145="NorthBound","&lt;=","&gt;=")&amp;Z145)</f>
         <v>12</v>
       </c>
       <c r="V145" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 22:48:21-0600',mode:absolute,to:'2016-06-25 23:35:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 22:25:01-0600',mode:absolute,to:'2016-06-25 23:08:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W145" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X145" s="48">
-        <f t="shared" ref="X145:X151" si="84">VALUE(LEFT(A145,3))-VALUE(LEFT(A144,3))</f>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="Y145" s="48">
-        <f t="shared" ref="Y145:Y151" si="85">RIGHT(D145,LEN(D145)-4)/10000</f>
-        <v>23.298200000000001</v>
+        <f t="shared" si="88"/>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="Z145" s="48">
-        <f t="shared" ref="Z145:Z151" si="86">RIGHT(H145,LEN(H145)-4)/10000</f>
-        <v>2.1100000000000001E-2</v>
+        <f t="shared" si="89"/>
+        <v>23.329499999999999</v>
       </c>
       <c r="AA145" s="48">
-        <f t="shared" ref="AA145:AA151" si="87">ABS(Z145-Y145)</f>
-        <v>23.277100000000001</v>
+        <f t="shared" si="90"/>
+        <v>23.280200000000001</v>
       </c>
       <c r="AB145" s="49" t="e">
         <f>VLOOKUP(A145,Enforcements!$C$7:$J$32,8,0)</f>
@@ -15902,37 +15892,37 @@
     </row>
     <row r="146" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="43" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B146" s="43">
-        <v>4027</v>
+        <v>4028</v>
       </c>
       <c r="C146" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D146" s="43" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="E146" s="25">
-        <v>42546.934733796297</v>
+        <v>42546.97383101852</v>
       </c>
       <c r="F146" s="25">
-        <v>42546.935833333337</v>
+        <v>42546.975324074076</v>
       </c>
       <c r="G146" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146" s="25" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I146" s="25">
-        <v>42546.963784722226</v>
+        <v>42547.004490740743</v>
       </c>
       <c r="J146" s="43">
         <v>0</v>
       </c>
       <c r="K146" s="43" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>4027/4028</v>
       </c>
       <c r="L146" s="43" t="str">
@@ -15940,52 +15930,52 @@
         <v>CHANDLER</v>
       </c>
       <c r="M146" s="11">
-        <f t="shared" si="78"/>
-        <v>2.7951388889050577E-2</v>
+        <f t="shared" si="81"/>
+        <v>2.9166666667151731E-2</v>
       </c>
       <c r="N146" s="12">
-        <f t="shared" si="79"/>
-        <v>40.250000000232831</v>
+        <f t="shared" si="82"/>
+        <v>42.000000000698492</v>
       </c>
       <c r="O146" s="12"/>
       <c r="P146" s="12"/>
       <c r="Q146" s="44"/>
       <c r="R146" s="44"/>
       <c r="S146" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T146" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>NorthBound</v>
+        <f t="shared" si="83"/>
+        <v>Southbound</v>
       </c>
       <c r="U146" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T146="NorthBound","&gt;=","&lt;=")&amp;Y146,Variables!$M$2:$M$19,IF(T146="NorthBound","&lt;=","&gt;=")&amp;Z146)</f>
         <v>12</v>
       </c>
       <c r="V146" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 22:25:01-0600',mode:absolute,to:'2016-06-25 23:08:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 23:21:19-0600',mode:absolute,to:'2016-06-26 00:07:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W146" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X146" s="48">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="Y146" s="48">
-        <f t="shared" si="85"/>
-        <v>4.9299999999999997E-2</v>
+        <f t="shared" si="88"/>
+        <v>23.299399999999999</v>
       </c>
       <c r="Z146" s="48">
-        <f t="shared" si="86"/>
-        <v>23.329499999999999</v>
+        <f t="shared" si="89"/>
+        <v>1.61E-2</v>
       </c>
       <c r="AA146" s="48">
-        <f t="shared" si="87"/>
-        <v>23.280200000000001</v>
+        <f t="shared" si="90"/>
+        <v>23.283299999999997</v>
       </c>
       <c r="AB146" s="49" t="e">
         <f>VLOOKUP(A146,Enforcements!$C$7:$J$32,8,0)</f>
@@ -15998,90 +15988,90 @@
     </row>
     <row r="147" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="43" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B147" s="43">
-        <v>4028</v>
+        <v>4014</v>
       </c>
       <c r="C147" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D147" s="43" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="E147" s="25">
-        <v>42546.97383101852</v>
+        <v>42546.955925925926</v>
       </c>
       <c r="F147" s="25">
-        <v>42546.975324074076</v>
+        <v>42546.956666666665</v>
       </c>
       <c r="G147" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147" s="25" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="I147" s="25">
-        <v>42547.004490740743</v>
+        <v>42546.983506944445</v>
       </c>
       <c r="J147" s="43">
         <v>0</v>
       </c>
       <c r="K147" s="43" t="str">
-        <f t="shared" si="77"/>
-        <v>4027/4028</v>
+        <f t="shared" si="80"/>
+        <v>4013/4014</v>
       </c>
       <c r="L147" s="43" t="str">
         <f>VLOOKUP(A147,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>CHANDLER</v>
+        <v>ADANE</v>
       </c>
       <c r="M147" s="11">
-        <f t="shared" si="78"/>
-        <v>2.9166666667151731E-2</v>
+        <f t="shared" si="81"/>
+        <v>2.6840277780138422E-2</v>
       </c>
       <c r="N147" s="12">
-        <f t="shared" si="79"/>
-        <v>42.000000000698492</v>
+        <f t="shared" si="82"/>
+        <v>38.650000003399327</v>
       </c>
       <c r="O147" s="12"/>
       <c r="P147" s="12"/>
       <c r="Q147" s="44"/>
       <c r="R147" s="44"/>
       <c r="S147" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T147" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>Southbound</v>
+        <f t="shared" si="83"/>
+        <v>NorthBound</v>
       </c>
       <c r="U147" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T147="NorthBound","&gt;=","&lt;=")&amp;Y147,Variables!$M$2:$M$19,IF(T147="NorthBound","&lt;=","&gt;=")&amp;Z147)</f>
         <v>12</v>
       </c>
       <c r="V147" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 23:21:19-0600',mode:absolute,to:'2016-06-26 00:07:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 22:55:32-0600',mode:absolute,to:'2016-06-25 23:37:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W147" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X147" s="48">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="Y147" s="48">
-        <f t="shared" si="85"/>
-        <v>23.299399999999999</v>
+        <f t="shared" si="88"/>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="Z147" s="48">
-        <f t="shared" si="86"/>
-        <v>1.61E-2</v>
+        <f t="shared" si="89"/>
+        <v>23.329899999999999</v>
       </c>
       <c r="AA147" s="48">
-        <f t="shared" si="87"/>
-        <v>23.283299999999997</v>
+        <f t="shared" si="90"/>
+        <v>23.283899999999999</v>
       </c>
       <c r="AB147" s="49" t="e">
         <f>VLOOKUP(A147,Enforcements!$C$7:$J$32,8,0)</f>
@@ -16094,37 +16084,37 @@
     </row>
     <row r="148" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="43" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B148" s="43">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="C148" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D148" s="43" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E148" s="25">
-        <v>42546.955925925926</v>
+        <v>42546.993946759256</v>
       </c>
       <c r="F148" s="25">
-        <v>42546.956666666665</v>
+        <v>42546.996030092596</v>
       </c>
       <c r="G148" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H148" s="25" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="I148" s="25">
-        <v>42546.983506944445</v>
+        <v>42547.023865740739</v>
       </c>
       <c r="J148" s="43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K148" s="43" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>4013/4014</v>
       </c>
       <c r="L148" s="43" t="str">
@@ -16132,191 +16122,191 @@
         <v>ADANE</v>
       </c>
       <c r="M148" s="11">
-        <f t="shared" si="78"/>
-        <v>2.6840277780138422E-2</v>
+        <f t="shared" si="81"/>
+        <v>2.7835648143081926E-2</v>
       </c>
       <c r="N148" s="12">
-        <f t="shared" si="79"/>
-        <v>38.650000003399327</v>
+        <f t="shared" si="82"/>
+        <v>40.083333326037973</v>
       </c>
       <c r="O148" s="12"/>
       <c r="P148" s="12"/>
       <c r="Q148" s="44"/>
       <c r="R148" s="44"/>
       <c r="S148" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T148" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>NorthBound</v>
+        <f t="shared" si="83"/>
+        <v>Southbound</v>
       </c>
       <c r="U148" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T148="NorthBound","&gt;=","&lt;=")&amp;Y148,Variables!$M$2:$M$19,IF(T148="NorthBound","&lt;=","&gt;=")&amp;Z148)</f>
         <v>12</v>
       </c>
       <c r="V148" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 22:55:32-0600',mode:absolute,to:'2016-06-25 23:37:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 23:50:17-0600',mode:absolute,to:'2016-06-26 00:35:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W148" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X148" s="48">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="Y148" s="48">
-        <f t="shared" si="85"/>
-        <v>4.5999999999999999E-2</v>
+        <f t="shared" si="88"/>
+        <v>23.297699999999999</v>
       </c>
       <c r="Z148" s="48">
-        <f t="shared" si="86"/>
-        <v>23.329899999999999</v>
+        <f t="shared" si="89"/>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="AA148" s="48">
-        <f t="shared" si="87"/>
-        <v>23.283899999999999</v>
-      </c>
-      <c r="AB148" s="49" t="e">
+        <f t="shared" si="90"/>
+        <v>23.2821</v>
+      </c>
+      <c r="AB148" s="49">
         <f>VLOOKUP(A148,Enforcements!$C$7:$J$32,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC148" s="49" t="e">
+        <v>183829</v>
+      </c>
+      <c r="AC148" s="49" t="str">
         <f>VLOOKUP(A148,Enforcements!$C$7:$E$32,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="149" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>PERMANENT SPEED RESTRICTION</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149" s="43" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B149" s="43">
-        <v>4013</v>
+        <v>4042</v>
       </c>
       <c r="C149" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D149" s="43" t="s">
-        <v>71</v>
+        <v>467</v>
       </c>
       <c r="E149" s="25">
-        <v>42546.993946759256</v>
+        <v>42546.969583333332</v>
       </c>
       <c r="F149" s="25">
-        <v>42546.996030092596</v>
+        <v>42546.970451388886</v>
       </c>
       <c r="G149" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H149" s="25" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="I149" s="25">
-        <v>42547.023865740739</v>
+        <v>42547.006944444445</v>
       </c>
       <c r="J149" s="43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K149" s="43" t="str">
-        <f t="shared" si="77"/>
-        <v>4013/4014</v>
+        <f t="shared" si="80"/>
+        <v>4041/4042</v>
       </c>
       <c r="L149" s="43" t="str">
         <f>VLOOKUP(A149,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>ADANE</v>
+        <v>LEVERE</v>
       </c>
       <c r="M149" s="11">
-        <f t="shared" si="78"/>
-        <v>2.7835648143081926E-2</v>
+        <f t="shared" si="81"/>
+        <v>3.6493055558821652E-2</v>
       </c>
       <c r="N149" s="12">
-        <f t="shared" si="79"/>
-        <v>40.083333326037973</v>
+        <f t="shared" si="82"/>
+        <v>52.550000004703179</v>
       </c>
       <c r="O149" s="12"/>
       <c r="P149" s="12"/>
       <c r="Q149" s="44"/>
       <c r="R149" s="44"/>
       <c r="S149" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T149" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>Southbound</v>
+        <f t="shared" si="83"/>
+        <v>NorthBound</v>
       </c>
       <c r="U149" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T149="NorthBound","&gt;=","&lt;=")&amp;Y149,Variables!$M$2:$M$19,IF(T149="NorthBound","&lt;=","&gt;=")&amp;Z149)</f>
         <v>12</v>
       </c>
       <c r="V149" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 23:50:17-0600',mode:absolute,to:'2016-06-26 00:35:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 23:15:12-0600',mode:absolute,to:'2016-06-26 00:11:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W149" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X149" s="48">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="Y149" s="48">
-        <f t="shared" si="85"/>
-        <v>23.297699999999999</v>
+        <f t="shared" si="88"/>
+        <v>4.82E-2</v>
       </c>
       <c r="Z149" s="48">
-        <f t="shared" si="86"/>
-        <v>1.5599999999999999E-2</v>
+        <f t="shared" si="89"/>
+        <v>23.329499999999999</v>
       </c>
       <c r="AA149" s="48">
-        <f t="shared" si="87"/>
-        <v>23.2821</v>
-      </c>
-      <c r="AB149" s="49">
+        <f t="shared" si="90"/>
+        <v>23.281299999999998</v>
+      </c>
+      <c r="AB149" s="49" t="e">
         <f>VLOOKUP(A149,Enforcements!$C$7:$J$32,8,0)</f>
-        <v>183829</v>
-      </c>
-      <c r="AC149" s="49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC149" s="49" t="e">
         <f>VLOOKUP(A149,Enforcements!$C$7:$E$32,3,0)</f>
-        <v>PERMANENT SPEED RESTRICTION</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150" s="43" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B150" s="43">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="C150" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D150" s="43" t="s">
-        <v>467</v>
+        <v>177</v>
       </c>
       <c r="E150" s="25">
-        <v>42546.969583333332</v>
+        <v>42547.01258101852</v>
       </c>
       <c r="F150" s="25">
-        <v>42546.970451388886</v>
+        <v>42547.013680555552</v>
       </c>
       <c r="G150" s="25">
         <v>1</v>
       </c>
       <c r="H150" s="25" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="I150" s="25">
-        <v>42547.006944444445</v>
+        <v>42547.044988425929</v>
       </c>
       <c r="J150" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" s="43" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>4041/4042</v>
       </c>
       <c r="L150" s="43" t="str">
@@ -16324,52 +16314,52 @@
         <v>LEVERE</v>
       </c>
       <c r="M150" s="11">
-        <f t="shared" si="78"/>
-        <v>3.6493055558821652E-2</v>
+        <f t="shared" si="81"/>
+        <v>3.1307870376622304E-2</v>
       </c>
       <c r="N150" s="12">
-        <f t="shared" si="79"/>
-        <v>52.550000004703179</v>
+        <f t="shared" si="82"/>
+        <v>45.083333342336118</v>
       </c>
       <c r="O150" s="12"/>
       <c r="P150" s="12"/>
       <c r="Q150" s="44"/>
       <c r="R150" s="44"/>
       <c r="S150" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T150" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>NorthBound</v>
+        <f t="shared" si="83"/>
+        <v>Southbound</v>
       </c>
       <c r="U150" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T150="NorthBound","&gt;=","&lt;=")&amp;Y150,Variables!$M$2:$M$19,IF(T150="NorthBound","&lt;=","&gt;=")&amp;Z150)</f>
         <v>12</v>
       </c>
       <c r="V150" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 23:15:12-0600',mode:absolute,to:'2016-06-26 00:11:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 00:17:07-0600',mode:absolute,to:'2016-06-26 01:05:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W150" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X150" s="48">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="Y150" s="48">
-        <f t="shared" si="85"/>
-        <v>4.82E-2</v>
+        <f t="shared" si="88"/>
+        <v>23.296099999999999</v>
       </c>
       <c r="Z150" s="48">
-        <f t="shared" si="86"/>
-        <v>23.329499999999999</v>
+        <f t="shared" si="89"/>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="AA150" s="48">
-        <f t="shared" si="87"/>
-        <v>23.281299999999998</v>
+        <f t="shared" si="90"/>
+        <v>23.2805</v>
       </c>
       <c r="AB150" s="49" t="e">
         <f>VLOOKUP(A150,Enforcements!$C$7:$J$32,8,0)</f>
@@ -16380,92 +16370,92 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="43" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B151" s="43">
-        <v>4041</v>
+        <v>4044</v>
       </c>
       <c r="C151" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D151" s="43" t="s">
-        <v>177</v>
+        <v>470</v>
       </c>
       <c r="E151" s="25">
-        <v>42547.01258101852</v>
+        <v>42546.99082175926</v>
       </c>
       <c r="F151" s="25">
-        <v>42547.013680555552</v>
+        <v>42546.991782407407</v>
       </c>
       <c r="G151" s="25">
         <v>1</v>
       </c>
       <c r="H151" s="25" t="s">
-        <v>75</v>
+        <v>471</v>
       </c>
       <c r="I151" s="25">
-        <v>42547.044988425929</v>
+        <v>42547.025787037041</v>
       </c>
       <c r="J151" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K151" s="43" t="str">
-        <f t="shared" si="77"/>
-        <v>4041/4042</v>
+        <f t="shared" si="80"/>
+        <v>4043/4044</v>
       </c>
       <c r="L151" s="43" t="str">
         <f>VLOOKUP(A151,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>LEVERE</v>
+        <v>BRUDER</v>
       </c>
       <c r="M151" s="11">
-        <f t="shared" si="78"/>
-        <v>3.1307870376622304E-2</v>
+        <f t="shared" si="81"/>
+        <v>3.4004629633272998E-2</v>
       </c>
       <c r="N151" s="12">
-        <f t="shared" si="79"/>
-        <v>45.083333342336118</v>
+        <f t="shared" si="82"/>
+        <v>48.966666671913117</v>
       </c>
       <c r="O151" s="12"/>
       <c r="P151" s="12"/>
       <c r="Q151" s="44"/>
       <c r="R151" s="44"/>
       <c r="S151" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T151" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>Southbound</v>
+        <f t="shared" si="83"/>
+        <v>NorthBound</v>
       </c>
       <c r="U151" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T151="NorthBound","&gt;=","&lt;=")&amp;Y151,Variables!$M$2:$M$19,IF(T151="NorthBound","&lt;=","&gt;=")&amp;Z151)</f>
         <v>12</v>
       </c>
       <c r="V151" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 00:17:07-0600',mode:absolute,to:'2016-06-26 01:05:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 23:45:47-0600',mode:absolute,to:'2016-06-26 00:38:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W151" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X151" s="48">
-        <f t="shared" si="84"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="Y151" s="48">
-        <f t="shared" si="85"/>
-        <v>23.296099999999999</v>
+        <f t="shared" si="78"/>
+        <v>5.2200000000000003E-2</v>
       </c>
       <c r="Z151" s="48">
+        <f t="shared" si="79"/>
+        <v>23.334499999999998</v>
+      </c>
+      <c r="AA151" s="48">
         <f t="shared" si="86"/>
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="AA151" s="48">
-        <f t="shared" si="87"/>
-        <v>23.2805</v>
+        <v>23.282299999999999</v>
       </c>
       <c r="AB151" s="49" t="e">
         <f>VLOOKUP(A151,Enforcements!$C$7:$J$32,8,0)</f>
@@ -16476,39 +16466,39 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152" s="43" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B152" s="43">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="C152" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D152" s="43" t="s">
-        <v>470</v>
+        <v>214</v>
       </c>
       <c r="E152" s="25">
-        <v>42546.99082175926</v>
+        <v>42547.032326388886</v>
       </c>
       <c r="F152" s="25">
-        <v>42546.991782407407</v>
+        <v>42547.033564814818</v>
       </c>
       <c r="G152" s="25">
         <v>1</v>
       </c>
       <c r="H152" s="25" t="s">
-        <v>471</v>
+        <v>204</v>
       </c>
       <c r="I152" s="25">
-        <v>42547.025787037041</v>
+        <v>42547.064895833333</v>
       </c>
       <c r="J152" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K152" s="43" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>4043/4044</v>
       </c>
       <c r="L152" s="43" t="str">
@@ -16516,35 +16506,35 @@
         <v>BRUDER</v>
       </c>
       <c r="M152" s="11">
-        <f t="shared" si="78"/>
-        <v>3.4004629633272998E-2</v>
+        <f t="shared" si="81"/>
+        <v>3.1331018515629694E-2</v>
       </c>
       <c r="N152" s="12">
-        <f t="shared" si="79"/>
-        <v>48.966666671913117</v>
+        <f t="shared" si="82"/>
+        <v>45.116666662506759</v>
       </c>
       <c r="O152" s="12"/>
       <c r="P152" s="12"/>
       <c r="Q152" s="44"/>
       <c r="R152" s="44"/>
       <c r="S152" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T152" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>NorthBound</v>
+        <f t="shared" si="83"/>
+        <v>Southbound</v>
       </c>
       <c r="U152" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T152="NorthBound","&gt;=","&lt;=")&amp;Y152,Variables!$M$2:$M$19,IF(T152="NorthBound","&lt;=","&gt;=")&amp;Z152)</f>
         <v>12</v>
       </c>
       <c r="V152" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 23:45:47-0600',mode:absolute,to:'2016-06-26 00:38:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 00:45:33-0600',mode:absolute,to:'2016-06-26 01:34:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W152" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X152" s="48">
@@ -16552,16 +16542,16 @@
         <v>1</v>
       </c>
       <c r="Y152" s="48">
-        <f t="shared" si="75"/>
-        <v>5.2200000000000003E-2</v>
+        <f t="shared" si="78"/>
+        <v>23.298400000000001</v>
       </c>
       <c r="Z152" s="48">
-        <f t="shared" si="76"/>
-        <v>23.334499999999998</v>
+        <f t="shared" si="79"/>
+        <v>2.23E-2</v>
       </c>
       <c r="AA152" s="48">
-        <f t="shared" si="83"/>
-        <v>23.282299999999999</v>
+        <f t="shared" si="86"/>
+        <v>23.2761</v>
       </c>
       <c r="AB152" s="49" t="e">
         <f>VLOOKUP(A152,Enforcements!$C$7:$J$32,8,0)</f>
@@ -16574,73 +16564,73 @@
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153" s="43" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B153" s="43">
-        <v>4043</v>
+        <v>4027</v>
       </c>
       <c r="C153" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D153" s="43" t="s">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="E153" s="25">
-        <v>42547.032326388886</v>
+        <v>42547.015405092592</v>
       </c>
       <c r="F153" s="25">
-        <v>42547.033564814818</v>
+        <v>42547.016597222224</v>
       </c>
       <c r="G153" s="25">
         <v>1</v>
       </c>
       <c r="H153" s="25" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I153" s="25">
-        <v>42547.064895833333</v>
+        <v>42547.046574074076</v>
       </c>
       <c r="J153" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153" s="43" t="str">
-        <f t="shared" si="77"/>
-        <v>4043/4044</v>
+        <f t="shared" si="80"/>
+        <v>4027/4028</v>
       </c>
       <c r="L153" s="43" t="str">
         <f>VLOOKUP(A153,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>BRUDER</v>
+        <v>CHANDLER</v>
       </c>
       <c r="M153" s="11">
-        <f t="shared" si="78"/>
-        <v>3.1331018515629694E-2</v>
+        <f t="shared" si="81"/>
+        <v>2.99768518525525E-2</v>
       </c>
       <c r="N153" s="12">
-        <f t="shared" si="79"/>
-        <v>45.116666662506759</v>
+        <f t="shared" si="82"/>
+        <v>43.166666667675599</v>
       </c>
       <c r="O153" s="12"/>
       <c r="P153" s="12"/>
       <c r="Q153" s="44"/>
       <c r="R153" s="44"/>
       <c r="S153" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T153" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>Southbound</v>
+        <f t="shared" si="83"/>
+        <v>NorthBound</v>
       </c>
       <c r="U153" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T153="NorthBound","&gt;=","&lt;=")&amp;Y153,Variables!$M$2:$M$19,IF(T153="NorthBound","&lt;=","&gt;=")&amp;Z153)</f>
         <v>12</v>
       </c>
       <c r="V153" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 00:45:33-0600',mode:absolute,to:'2016-06-26 01:34:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 00:21:11-0600',mode:absolute,to:'2016-06-26 01:08:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W153" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X153" s="48">
@@ -16648,16 +16638,16 @@
         <v>1</v>
       </c>
       <c r="Y153" s="48">
-        <f t="shared" si="75"/>
-        <v>23.298400000000001</v>
+        <f t="shared" si="78"/>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="Z153" s="48">
-        <f t="shared" si="76"/>
-        <v>2.23E-2</v>
+        <f t="shared" si="79"/>
+        <v>23.328900000000001</v>
       </c>
       <c r="AA153" s="48">
-        <f t="shared" si="83"/>
-        <v>23.2761</v>
+        <f t="shared" si="86"/>
+        <v>23.282299999999999</v>
       </c>
       <c r="AB153" s="49" t="e">
         <f>VLOOKUP(A153,Enforcements!$C$7:$J$32,8,0)</f>
@@ -16670,37 +16660,37 @@
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154" s="43" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B154" s="43">
-        <v>4027</v>
+        <v>4028</v>
       </c>
       <c r="C154" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D154" s="43" t="s">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="E154" s="25">
-        <v>42547.015405092592</v>
+        <v>42547.05773148148</v>
       </c>
       <c r="F154" s="25">
-        <v>42547.016597222224</v>
+        <v>42547.058738425927</v>
       </c>
       <c r="G154" s="25">
         <v>1</v>
       </c>
       <c r="H154" s="25" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="I154" s="25">
-        <v>42547.046574074076</v>
+        <v>42547.087326388886</v>
       </c>
       <c r="J154" s="43">
         <v>0</v>
       </c>
       <c r="K154" s="43" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>4027/4028</v>
       </c>
       <c r="L154" s="43" t="str">
@@ -16708,35 +16698,35 @@
         <v>CHANDLER</v>
       </c>
       <c r="M154" s="11">
-        <f t="shared" si="78"/>
-        <v>2.99768518525525E-2</v>
+        <f t="shared" si="81"/>
+        <v>2.8587962959136348E-2</v>
       </c>
       <c r="N154" s="12">
-        <f t="shared" si="79"/>
-        <v>43.166666667675599</v>
+        <f t="shared" si="82"/>
+        <v>41.166666661156341</v>
       </c>
       <c r="O154" s="12"/>
       <c r="P154" s="12"/>
       <c r="Q154" s="44"/>
       <c r="R154" s="44"/>
       <c r="S154" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T154" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>NorthBound</v>
+        <f t="shared" si="83"/>
+        <v>Southbound</v>
       </c>
       <c r="U154" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T154="NorthBound","&gt;=","&lt;=")&amp;Y154,Variables!$M$2:$M$19,IF(T154="NorthBound","&lt;=","&gt;=")&amp;Z154)</f>
         <v>12</v>
       </c>
       <c r="V154" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 00:21:11-0600',mode:absolute,to:'2016-06-26 01:08:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 01:22:08-0600',mode:absolute,to:'2016-06-26 02:06:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W154" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X154" s="48">
@@ -16744,16 +16734,16 @@
         <v>1</v>
       </c>
       <c r="Y154" s="48">
-        <f t="shared" si="75"/>
-        <v>4.6600000000000003E-2</v>
+        <f t="shared" si="78"/>
+        <v>23.297799999999999</v>
       </c>
       <c r="Z154" s="48">
-        <f t="shared" si="76"/>
-        <v>23.328900000000001</v>
+        <f t="shared" si="79"/>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AA154" s="48">
-        <f t="shared" si="83"/>
-        <v>23.282299999999999</v>
+        <f t="shared" si="86"/>
+        <v>23.280799999999999</v>
       </c>
       <c r="AB154" s="49" t="e">
         <f>VLOOKUP(A154,Enforcements!$C$7:$J$32,8,0)</f>
@@ -16766,73 +16756,73 @@
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A155" s="43" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B155" s="43">
-        <v>4028</v>
+        <v>4014</v>
       </c>
       <c r="C155" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D155" s="43" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="E155" s="25">
-        <v>42547.05773148148</v>
+        <v>42547.035787037035</v>
       </c>
       <c r="F155" s="25">
-        <v>42547.058738425927</v>
+        <v>42547.036620370367</v>
       </c>
       <c r="G155" s="25">
         <v>1</v>
       </c>
       <c r="H155" s="25" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="I155" s="25">
-        <v>42547.087326388886</v>
+        <v>42547.066504629627</v>
       </c>
       <c r="J155" s="43">
         <v>0</v>
       </c>
       <c r="K155" s="43" t="str">
-        <f t="shared" si="77"/>
-        <v>4027/4028</v>
+        <f t="shared" si="80"/>
+        <v>4013/4014</v>
       </c>
       <c r="L155" s="43" t="str">
         <f>VLOOKUP(A155,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>CHANDLER</v>
+        <v>ADANE</v>
       </c>
       <c r="M155" s="11">
-        <f t="shared" si="78"/>
-        <v>2.8587962959136348E-2</v>
+        <f t="shared" si="81"/>
+        <v>2.9884259260143153E-2</v>
       </c>
       <c r="N155" s="12">
-        <f t="shared" si="79"/>
-        <v>41.166666661156341</v>
+        <f t="shared" si="82"/>
+        <v>43.033333334606141</v>
       </c>
       <c r="O155" s="12"/>
       <c r="P155" s="12"/>
       <c r="Q155" s="44"/>
       <c r="R155" s="44"/>
       <c r="S155" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T155" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>Southbound</v>
+        <f t="shared" si="83"/>
+        <v>NorthBound</v>
       </c>
       <c r="U155" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T155="NorthBound","&gt;=","&lt;=")&amp;Y155,Variables!$M$2:$M$19,IF(T155="NorthBound","&lt;=","&gt;=")&amp;Z155)</f>
         <v>12</v>
       </c>
       <c r="V155" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 01:22:08-0600',mode:absolute,to:'2016-06-26 02:06:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 00:50:32-0600',mode:absolute,to:'2016-06-26 01:36:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W155" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X155" s="48">
@@ -16840,16 +16830,16 @@
         <v>1</v>
       </c>
       <c r="Y155" s="48">
-        <f t="shared" si="75"/>
-        <v>23.297799999999999</v>
+        <f t="shared" si="78"/>
+        <v>4.6699999999999998E-2</v>
       </c>
       <c r="Z155" s="48">
-        <f t="shared" si="76"/>
-        <v>1.7000000000000001E-2</v>
+        <f t="shared" si="79"/>
+        <v>23.329899999999999</v>
       </c>
       <c r="AA155" s="48">
-        <f t="shared" si="83"/>
-        <v>23.280799999999999</v>
+        <f t="shared" si="86"/>
+        <v>23.283199999999997</v>
       </c>
       <c r="AB155" s="49" t="e">
         <f>VLOOKUP(A155,Enforcements!$C$7:$J$32,8,0)</f>
@@ -16862,73 +16852,73 @@
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156" s="43" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B156" s="43">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="C156" s="43" t="s">
         <v>60</v>
       </c>
       <c r="D156" s="43" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="E156" s="25">
-        <v>42547.035787037035</v>
+        <v>42547.077685185184</v>
       </c>
       <c r="F156" s="25">
-        <v>42547.036620370367</v>
+        <v>42547.078634259262</v>
       </c>
       <c r="G156" s="25">
         <v>1</v>
       </c>
       <c r="H156" s="25" t="s">
-        <v>185</v>
+        <v>477</v>
       </c>
       <c r="I156" s="25">
-        <v>42547.066504629627</v>
+        <v>42547.107372685183</v>
       </c>
       <c r="J156" s="43">
         <v>0</v>
       </c>
       <c r="K156" s="43" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>4013/4014</v>
       </c>
-      <c r="L156" s="43" t="str">
+      <c r="L156" s="43" t="e">
         <f>VLOOKUP(A156,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>ADANE</v>
+        <v>#N/A</v>
       </c>
       <c r="M156" s="11">
-        <f t="shared" si="78"/>
-        <v>2.9884259260143153E-2</v>
+        <f t="shared" si="81"/>
+        <v>2.8738425920892041E-2</v>
       </c>
       <c r="N156" s="12">
-        <f t="shared" si="79"/>
-        <v>43.033333334606141</v>
+        <f t="shared" si="82"/>
+        <v>41.383333326084539</v>
       </c>
       <c r="O156" s="12"/>
       <c r="P156" s="12"/>
       <c r="Q156" s="44"/>
       <c r="R156" s="44"/>
       <c r="S156" s="70">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T156" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>NorthBound</v>
+        <f t="shared" si="83"/>
+        <v>Southbound</v>
       </c>
       <c r="U156" s="2">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T156="NorthBound","&gt;=","&lt;=")&amp;Y156,Variables!$M$2:$M$19,IF(T156="NorthBound","&lt;=","&gt;=")&amp;Z156)</f>
         <v>12</v>
       </c>
       <c r="V156" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 00:50:32-0600',mode:absolute,to:'2016-06-26 01:36:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="84"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 01:50:52-0600',mode:absolute,to:'2016-06-26 02:35:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W156" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>N</v>
       </c>
       <c r="X156" s="48">
@@ -16936,16 +16926,16 @@
         <v>1</v>
       </c>
       <c r="Y156" s="48">
-        <f t="shared" si="75"/>
-        <v>4.6699999999999998E-2</v>
+        <f t="shared" si="78"/>
+        <v>23.297799999999999</v>
       </c>
       <c r="Z156" s="48">
-        <f t="shared" si="76"/>
-        <v>23.329899999999999</v>
+        <f t="shared" si="79"/>
+        <v>1.78E-2</v>
       </c>
       <c r="AA156" s="48">
-        <f t="shared" si="83"/>
-        <v>23.283199999999997</v>
+        <f t="shared" si="86"/>
+        <v>23.279999999999998</v>
       </c>
       <c r="AB156" s="49" t="e">
         <f>VLOOKUP(A156,Enforcements!$C$7:$J$32,8,0)</f>
@@ -16957,100 +16947,10 @@
       </c>
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A157" s="43" t="s">
-        <v>476</v>
-      </c>
-      <c r="B157" s="43">
-        <v>4013</v>
-      </c>
-      <c r="C157" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D157" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E157" s="25">
-        <v>42547.077685185184</v>
-      </c>
-      <c r="F157" s="25">
-        <v>42547.078634259262</v>
-      </c>
-      <c r="G157" s="25">
-        <v>1</v>
-      </c>
-      <c r="H157" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="I157" s="25">
-        <v>42547.107372685183</v>
-      </c>
-      <c r="J157" s="43">
-        <v>0</v>
-      </c>
-      <c r="K157" s="43" t="str">
-        <f t="shared" si="77"/>
-        <v>4013/4014</v>
-      </c>
-      <c r="L157" s="43" t="e">
-        <f>VLOOKUP(A157,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M157" s="11">
-        <f t="shared" si="78"/>
-        <v>2.8738425920892041E-2</v>
-      </c>
-      <c r="N157" s="12">
-        <f t="shared" si="79"/>
-        <v>41.383333326084539</v>
-      </c>
-      <c r="O157" s="12"/>
-      <c r="P157" s="12"/>
-      <c r="Q157" s="44"/>
-      <c r="R157" s="44"/>
-      <c r="S157" s="70">
-        <f t="shared" si="74"/>
-        <v>1</v>
-      </c>
-      <c r="T157" s="2" t="str">
-        <f t="shared" si="80"/>
-        <v>Southbound</v>
-      </c>
-      <c r="U157" s="2">
-        <f>COUNTIFS(Variables!$M$2:$M$19,IF(T157="NorthBound","&gt;=","&lt;=")&amp;Y157,Variables!$M$2:$M$19,IF(T157="NorthBound","&lt;=","&gt;=")&amp;Z157)</f>
-        <v>12</v>
-      </c>
-      <c r="V157" s="48" t="str">
-        <f t="shared" si="81"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 01:50:52-0600',mode:absolute,to:'2016-06-26 02:35:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="W157" s="48" t="str">
-        <f t="shared" si="82"/>
-        <v>N</v>
-      </c>
-      <c r="X157" s="48">
-        <f t="shared" si="66"/>
-        <v>1</v>
-      </c>
-      <c r="Y157" s="48">
-        <f t="shared" si="75"/>
-        <v>23.297799999999999</v>
-      </c>
-      <c r="Z157" s="48">
-        <f t="shared" si="76"/>
-        <v>1.78E-2</v>
-      </c>
-      <c r="AA157" s="48">
-        <f t="shared" si="83"/>
-        <v>23.279999999999998</v>
-      </c>
-      <c r="AB157" s="49" t="e">
-        <f>VLOOKUP(A157,Enforcements!$C$7:$J$32,8,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC157" s="49" t="e">
-        <f>VLOOKUP(A157,Enforcements!$C$7:$E$32,3,0)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="B157" s="42"/>
+      <c r="C157" s="42"/>
+      <c r="D157" s="42"/>
+      <c r="J157" s="42"/>
     </row>
     <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B158" s="42"/>
@@ -17106,14 +17006,8 @@
       <c r="D166" s="42"/>
       <c r="J166" s="42"/>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B167" s="42"/>
-      <c r="C167" s="42"/>
-      <c r="D167" s="42"/>
-      <c r="J167" s="42"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A12:AC157"/>
+  <autoFilter ref="A12:AC156"/>
   <sortState ref="A13:AC166">
     <sortCondition ref="A13:A166"/>
     <sortCondition ref="F13:F166"/>
@@ -17125,27 +17019,27 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="W11:W12 W13:X1048576">
-    <cfRule type="cellIs" dxfId="23" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="69" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X1048576">
-    <cfRule type="cellIs" dxfId="22" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="52" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X1048576">
-    <cfRule type="cellIs" dxfId="21" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B136:M136 A13:S13 S13:S29 A137:M144 A145:S157 A14:M135 N49:R157 N14:S144">
-    <cfRule type="expression" dxfId="20" priority="45">
+  <conditionalFormatting sqref="B135:M135 A13:S13 S13:S29 A136:M143 A144:S156 A14:M134 N117:R156 N14:S143">
+    <cfRule type="expression" dxfId="18" priority="45">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:S157">
-    <cfRule type="expression" dxfId="19" priority="44">
+  <conditionalFormatting sqref="A13:S156">
+    <cfRule type="expression" dxfId="17" priority="44">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17165,7 +17059,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B136:M136 A13:S13 S13:S29 A137:M144 A145:S157 A14:M135 N49:R157 N14:S144</xm:sqref>
+          <xm:sqref>B135:M135 A13:S13 S13:S29 A136:M143 A144:S156 A14:M134 N117:R156 N14:S143</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -17177,8 +17071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17196,7 +17090,7 @@
     <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="73" customWidth="1"/>
+    <col min="14" max="14" width="25.42578125" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="55"/>
   </cols>
   <sheetData>
@@ -17212,7 +17106,7 @@
       <c r="L2" s="73"/>
       <c r="M2" s="74">
         <f>COUNTIF($M$7:$M$874,"=Y")</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="P2" s="55"/>
     </row>
@@ -17224,7 +17118,7 @@
       <c r="L3" s="76"/>
       <c r="M3" s="77">
         <f>COUNTA($M$7:$M$874)-M2</f>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P3" s="55"/>
     </row>
@@ -17340,9 +17234,11 @@
       <c r="M7" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="16"/>
+      <c r="N7" s="16" t="s">
+        <v>497</v>
+      </c>
       <c r="P7" s="54" t="str">
-        <f>VLOOKUP(C7,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C7,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 08:10:43-0600',mode:absolute,to:'2016-06-25 08:16:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q7" s="14" t="str">
@@ -17391,9 +17287,11 @@
       <c r="M8" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="N8" s="16"/>
+      <c r="N8" s="16" t="s">
+        <v>497</v>
+      </c>
       <c r="P8" s="54" t="str">
-        <f>VLOOKUP(C8,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C8,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 21:47:25-0600',mode:absolute,to:'2016-06-25 22:41:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q8" s="14" t="str">
@@ -17440,11 +17338,13 @@
         <v>MALAVE</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N9" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>502</v>
+      </c>
       <c r="P9" s="54" t="str">
-        <f>VLOOKUP(C9,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C9,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 04:41:17-0600',mode:absolute,to:'2016-06-25 05:22:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q9" s="14" t="str">
@@ -17491,11 +17391,13 @@
         <v>SANTIZO</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N10" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>502</v>
+      </c>
       <c r="P10" s="54" t="str">
-        <f>VLOOKUP(C10,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C10,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 09:39:39-0600',mode:absolute,to:'2016-06-25 10:22:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q10" s="14" t="str">
@@ -17542,11 +17444,13 @@
         <v>MAYBERRY</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N11" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>502</v>
+      </c>
       <c r="P11" s="54" t="str">
-        <f>VLOOKUP(C11,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C11,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 14:56:35-0600',mode:absolute,to:'2016-06-25 15:52:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q11" s="14" t="str">
@@ -17593,11 +17497,13 @@
         <v>MAYBERRY</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N12" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>502</v>
+      </c>
       <c r="P12" s="54" t="str">
-        <f>VLOOKUP(C12,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C12,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 14:56:35-0600',mode:absolute,to:'2016-06-25 15:52:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q12" s="14" t="str">
@@ -17644,11 +17550,13 @@
         <v>MAYBERRY</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N13" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>503</v>
+      </c>
       <c r="P13" s="54" t="str">
-        <f>VLOOKUP(C13,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C13,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 14:56:35-0600',mode:absolute,to:'2016-06-25 15:52:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q13" s="14" t="str">
@@ -17695,11 +17603,13 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N14" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>503</v>
+      </c>
       <c r="P14" s="54" t="str">
-        <f>VLOOKUP(C14,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C14,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 17:50:08-0600',mode:absolute,to:'2016-06-25 18:37:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q14" s="14" t="str">
@@ -17746,11 +17656,13 @@
         <v>CHANDLER</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N15" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>502</v>
+      </c>
       <c r="P15" s="54" t="str">
-        <f>VLOOKUP(C15,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C15,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 19:20:53-0600',mode:absolute,to:'2016-06-25 20:06:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q15" s="14" t="str">
@@ -17797,11 +17709,13 @@
         <v>CHANDLER</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N16" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>502</v>
+      </c>
       <c r="P16" s="54" t="str">
-        <f>VLOOKUP(C16,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C16,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 19:20:53-0600',mode:absolute,to:'2016-06-25 20:06:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q16" s="14" t="str">
@@ -17848,11 +17762,13 @@
         <v>CHANDLER</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N17" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>503</v>
+      </c>
       <c r="P17" s="54" t="str">
-        <f>VLOOKUP(C17,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C17,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 19:20:53-0600',mode:absolute,to:'2016-06-25 20:06:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q17" s="14" t="str">
@@ -17903,7 +17819,7 @@
       </c>
       <c r="N18" s="16"/>
       <c r="P18" s="54" t="str">
-        <f>VLOOKUP(C18,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C18,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 08:38:06-0600',mode:absolute,to:'2016-06-25 09:22:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q18" s="14" t="str">
@@ -17954,7 +17870,7 @@
       </c>
       <c r="N19" s="16"/>
       <c r="P19" s="54" t="str">
-        <f>VLOOKUP(C19,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C19,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 12:24:13-0600',mode:absolute,to:'2016-06-25 13:10:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q19" s="14" t="str">
@@ -18005,7 +17921,7 @@
       </c>
       <c r="N20" s="16"/>
       <c r="P20" s="54" t="str">
-        <f>VLOOKUP(C20,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C20,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 15:08:47-0600',mode:absolute,to:'2016-06-25 15:53:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q20" s="14" t="str">
@@ -18056,7 +17972,7 @@
       </c>
       <c r="N21" s="16"/>
       <c r="P21" s="54" t="str">
-        <f>VLOOKUP(C21,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C21,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 16:17:50-0600',mode:absolute,to:'2016-06-25 17:11:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q21" s="14" t="str">
@@ -18107,7 +18023,7 @@
       </c>
       <c r="N22" s="16"/>
       <c r="P22" s="54" t="str">
-        <f>VLOOKUP(C22,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C22,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 18:55:57-0600',mode:absolute,to:'2016-06-25 19:38:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q22" s="14" t="str">
@@ -18158,7 +18074,7 @@
       </c>
       <c r="N23" s="16"/>
       <c r="P23" s="54" t="str">
-        <f>VLOOKUP(C23,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C23,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 23:50:17-0600',mode:absolute,to:'2016-06-26 00:35:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q23" s="14" t="str">
@@ -18205,11 +18121,13 @@
         <v>MALAVE</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N24" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>504</v>
+      </c>
       <c r="P24" s="54" t="str">
-        <f>VLOOKUP(C24,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C24,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 09:07:58-0600',mode:absolute,to:'2016-06-25 09:51:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q24" s="14" t="str">
@@ -18256,11 +18174,13 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N25" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>505</v>
+      </c>
       <c r="P25" s="54" t="str">
-        <f>VLOOKUP(C25,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C25,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 10:11:21-0600',mode:absolute,to:'2016-06-25 10:17:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q25" s="14" t="str">
@@ -18307,11 +18227,13 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="N26" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>504</v>
+      </c>
       <c r="P26" s="54" t="str">
-        <f>VLOOKUP(C26,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C26,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 12:37:12-0600',mode:absolute,to:'2016-06-25 13:20:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q26" s="14" t="str">
@@ -18360,9 +18282,11 @@
       <c r="M27" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="N27" s="16"/>
+      <c r="N27" s="16" t="s">
+        <v>506</v>
+      </c>
       <c r="P27" s="54" t="str">
-        <f>VLOOKUP(C27,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C27,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 12:48:50-0600',mode:absolute,to:'2016-06-25 13:27:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q27" s="14" t="str">
@@ -18411,9 +18335,11 @@
       <c r="M28" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="N28" s="16"/>
+      <c r="N28" s="16" t="s">
+        <v>506</v>
+      </c>
       <c r="P28" s="54" t="str">
-        <f>VLOOKUP(C28,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C28,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 16:17:50-0600',mode:absolute,to:'2016-06-25 17:11:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q28" s="14" t="str">
@@ -18462,9 +18388,11 @@
       <c r="M29" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="N29" s="16"/>
+      <c r="N29" s="16" t="s">
+        <v>506</v>
+      </c>
       <c r="P29" s="54" t="str">
-        <f>VLOOKUP(C29,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C29,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 04:53:05-0600',mode:absolute,to:'2016-06-25 05:50:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q29" s="14" t="str">
@@ -18513,9 +18441,11 @@
       <c r="M30" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="N30" s="16"/>
+      <c r="N30" s="16" t="s">
+        <v>506</v>
+      </c>
       <c r="P30" s="54" t="str">
-        <f>VLOOKUP(C30,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C30,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 12:48:50-0600',mode:absolute,to:'2016-06-25 13:27:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q30" s="14" t="str">
@@ -18566,7 +18496,7 @@
       </c>
       <c r="N31" s="16"/>
       <c r="P31" s="54" t="str">
-        <f>VLOOKUP(C31,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C31,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 03:36:56-0600',mode:absolute,to:'2016-06-25 04:23:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q31" s="14" t="str">
@@ -18617,7 +18547,7 @@
       </c>
       <c r="N32" s="16"/>
       <c r="P32" s="54" t="str">
-        <f>VLOOKUP(C32,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C32,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 05:35:18-0600',mode:absolute,to:'2016-06-25 06:21:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q32" s="14" t="str">
@@ -18669,7 +18599,7 @@
       <c r="N33" s="16"/>
       <c r="O33" s="2"/>
       <c r="P33" s="54" t="str">
-        <f>VLOOKUP(C33,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C33,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 06:27:07-0600',mode:absolute,to:'2016-06-25 07:08:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q33" s="14" t="str">
@@ -18721,7 +18651,7 @@
       <c r="N34" s="16"/>
       <c r="O34" s="2"/>
       <c r="P34" s="54" t="str">
-        <f>VLOOKUP(C34,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C34,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 07:21:50-0600',mode:absolute,to:'2016-06-25 08:06:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q34" s="14" t="str">
@@ -18773,7 +18703,7 @@
       <c r="N35" s="16"/>
       <c r="O35" s="2"/>
       <c r="P35" s="54" t="str">
-        <f>VLOOKUP(C35,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C35,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 06:38:17-0600',mode:absolute,to:'2016-06-25 07:23:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q35" s="14" t="str">
@@ -18825,7 +18755,7 @@
       <c r="N36" s="16"/>
       <c r="O36" s="2"/>
       <c r="P36" s="54" t="str">
-        <f>VLOOKUP(C36,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C36,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 08:38:05-0600',mode:absolute,to:'2016-06-25 09:35:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q36" s="14" t="str">
@@ -18877,7 +18807,7 @@
       <c r="N37" s="16"/>
       <c r="O37" s="2"/>
       <c r="P37" s="54" t="str">
-        <f>VLOOKUP(C37,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C37,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 09:07:58-0600',mode:absolute,to:'2016-06-25 09:51:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q37" s="14" t="str">
@@ -18929,7 +18859,7 @@
       <c r="N38" s="16"/>
       <c r="O38" s="2"/>
       <c r="P38" s="54" t="str">
-        <f>VLOOKUP(C38,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C38,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 09:17:42-0600',mode:absolute,to:'2016-06-25 10:04:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q38" s="14" t="str">
@@ -18981,7 +18911,7 @@
       <c r="N39" s="16"/>
       <c r="O39" s="2"/>
       <c r="P39" s="54" t="str">
-        <f>VLOOKUP(C39,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C39,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 09:49:00-0600',mode:absolute,to:'2016-06-25 10:35:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q39" s="14" t="str">
@@ -19033,7 +18963,7 @@
       <c r="N40" s="16"/>
       <c r="O40" s="2"/>
       <c r="P40" s="54" t="str">
-        <f>VLOOKUP(C40,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C40,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 10:38:18-0600',mode:absolute,to:'2016-06-25 11:23:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q40" s="14" t="str">
@@ -19085,7 +19015,7 @@
       <c r="N41" s="16"/>
       <c r="O41" s="2"/>
       <c r="P41" s="54" t="str">
-        <f>VLOOKUP(C41,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C41,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 11:48:35-0600',mode:absolute,to:'2016-06-25 12:36:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q41" s="14" t="str">
@@ -19137,7 +19067,7 @@
       <c r="N42" s="16"/>
       <c r="O42" s="2"/>
       <c r="P42" s="54" t="str">
-        <f>VLOOKUP(C42,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C42,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 12:37:58-0600',mode:absolute,to:'2016-06-25 13:23:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q42" s="14" t="str">
@@ -19189,7 +19119,7 @@
       <c r="N43" s="16"/>
       <c r="O43" s="2"/>
       <c r="P43" s="54" t="str">
-        <f>VLOOKUP(C43,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C43,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 13:46:17-0600',mode:absolute,to:'2016-06-25 14:36:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q43" s="14" t="str">
@@ -19241,7 +19171,7 @@
       <c r="N44" s="16"/>
       <c r="O44" s="2"/>
       <c r="P44" s="54" t="str">
-        <f>VLOOKUP(C44,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C44,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 14:05:20-0600',mode:absolute,to:'2016-06-25 14:49:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q44" s="14" t="str">
@@ -19293,7 +19223,7 @@
       <c r="N45" s="16"/>
       <c r="O45" s="2"/>
       <c r="P45" s="54" t="str">
-        <f>VLOOKUP(C45,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C45,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 13:51:55-0600',mode:absolute,to:'2016-06-25 14:40:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q45" s="14" t="str">
@@ -19345,7 +19275,7 @@
       <c r="N46" s="16"/>
       <c r="O46" s="2"/>
       <c r="P46" s="54" t="str">
-        <f>VLOOKUP(C46,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C46,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 14:06:27-0600',mode:absolute,to:'2016-06-25 14:55:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q46" s="14" t="str">
@@ -19397,7 +19327,7 @@
       <c r="N47" s="16"/>
       <c r="O47" s="2"/>
       <c r="P47" s="54" t="str">
-        <f>VLOOKUP(C47,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C47,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 15:23:13-0600',mode:absolute,to:'2016-06-25 16:07:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q47" s="14" t="str">
@@ -19449,7 +19379,7 @@
       <c r="N48" s="16"/>
       <c r="O48" s="2"/>
       <c r="P48" s="54" t="str">
-        <f>VLOOKUP(C48,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C48,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 16:09:49-0600',mode:absolute,to:'2016-06-25 16:56:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q48" s="14" t="str">
@@ -19501,7 +19431,7 @@
       <c r="N49" s="16"/>
       <c r="O49" s="2"/>
       <c r="P49" s="54" t="str">
-        <f>VLOOKUP(C49,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C49,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 17:37:03-0600',mode:absolute,to:'2016-06-25 18:21:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q49" s="14" t="str">
@@ -19553,7 +19483,7 @@
       <c r="N50" s="16"/>
       <c r="O50" s="2"/>
       <c r="P50" s="54" t="str">
-        <f>VLOOKUP(C50,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C50,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 17:27:00-0600',mode:absolute,to:'2016-06-25 18:09:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q50" s="14" t="str">
@@ -19605,7 +19535,7 @@
       <c r="N51" s="16"/>
       <c r="O51" s="2"/>
       <c r="P51" s="54" t="str">
-        <f>VLOOKUP(C51,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C51,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 17:53:14-0600',mode:absolute,to:'2016-06-25 18:39:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q51" s="14" t="str">
@@ -19657,7 +19587,7 @@
       <c r="N52" s="16"/>
       <c r="O52" s="2"/>
       <c r="P52" s="54" t="str">
-        <f>VLOOKUP(C52,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C52,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 18:09:17-0600',mode:absolute,to:'2016-06-25 18:53:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q52" s="14" t="str">
@@ -19709,7 +19639,7 @@
       <c r="N53" s="16"/>
       <c r="O53" s="2"/>
       <c r="P53" s="54" t="str">
-        <f>VLOOKUP(C53,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C53,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 19:52:36-0600',mode:absolute,to:'2016-06-25 20:34:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q53" s="14" t="str">
@@ -19761,7 +19691,7 @@
       <c r="N54" s="16"/>
       <c r="O54" s="2"/>
       <c r="P54" s="54" t="str">
-        <f>VLOOKUP(C54,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C54,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 20:12:42-0600',mode:absolute,to:'2016-06-25 21:06:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q54" s="14" t="str">
@@ -19813,7 +19743,7 @@
       <c r="N55" s="16"/>
       <c r="O55" s="2"/>
       <c r="P55" s="54" t="str">
-        <f>VLOOKUP(C55,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C55,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 22:16:50-0600',mode:absolute,to:'2016-06-25 23:09:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q55" s="14" t="str">
@@ -19865,7 +19795,7 @@
       <c r="N56" s="16"/>
       <c r="O56" s="2"/>
       <c r="P56" s="54" t="str">
-        <f>VLOOKUP(C56,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C56,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 22:48:21-0600',mode:absolute,to:'2016-06-25 23:35:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q56" s="14" t="str">
@@ -19917,7 +19847,7 @@
       <c r="N57" s="16"/>
       <c r="O57" s="2"/>
       <c r="P57" s="54" t="str">
-        <f>VLOOKUP(C57,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C57,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 23:50:17-0600',mode:absolute,to:'2016-06-26 00:35:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q57" s="14" t="str">
@@ -19969,7 +19899,7 @@
       <c r="N58" s="16"/>
       <c r="O58" s="2"/>
       <c r="P58" s="54" t="str">
-        <f>VLOOKUP(C58,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C58,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-26 00:17:07-0600',mode:absolute,to:'2016-06-26 01:05:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q58" s="14" t="str">
@@ -20018,10 +19948,12 @@
       <c r="M59" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="N59" s="16"/>
+      <c r="N59" s="16" t="s">
+        <v>506</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" s="54" t="str">
-        <f>VLOOKUP(C59,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C59,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 17:53:14-0600',mode:absolute,to:'2016-06-25 18:39:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q59" s="14" t="str">
@@ -20046,7 +19978,7 @@
       <c r="N60" s="16"/>
       <c r="O60" s="2"/>
       <c r="P60" s="54" t="e">
-        <f>VLOOKUP(C60,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C60,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q60" s="14" t="str">
@@ -20071,7 +20003,7 @@
       <c r="N61" s="16"/>
       <c r="O61" s="2"/>
       <c r="P61" s="54" t="e">
-        <f>VLOOKUP(C61,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C61,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q61" s="14" t="str">
@@ -20096,7 +20028,7 @@
       <c r="N62" s="16"/>
       <c r="O62" s="2"/>
       <c r="P62" s="54" t="e">
-        <f>VLOOKUP(C62,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C62,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q62" s="14" t="str">
@@ -20121,7 +20053,7 @@
       <c r="N63" s="16"/>
       <c r="O63" s="2"/>
       <c r="P63" s="54" t="e">
-        <f>VLOOKUP(C63,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C63,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q63" s="14" t="str">
@@ -20146,7 +20078,7 @@
       <c r="N64" s="16"/>
       <c r="O64" s="2"/>
       <c r="P64" s="54" t="e">
-        <f>VLOOKUP(C64,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C64,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q64" s="14" t="str">
@@ -20171,7 +20103,7 @@
       <c r="N65" s="16"/>
       <c r="O65" s="2"/>
       <c r="P65" s="54" t="e">
-        <f>VLOOKUP(C65,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C65,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q65" s="14" t="str">
@@ -20196,7 +20128,7 @@
       <c r="N66" s="16"/>
       <c r="O66" s="2"/>
       <c r="P66" s="54" t="e">
-        <f>VLOOKUP(C66,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C66,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q66" s="14" t="str">
@@ -20221,7 +20153,7 @@
       <c r="N67" s="16"/>
       <c r="O67" s="2"/>
       <c r="P67" s="54" t="e">
-        <f>VLOOKUP(C67,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C67,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q67" s="14" t="str">
@@ -20246,7 +20178,7 @@
       <c r="N68" s="16"/>
       <c r="O68" s="2"/>
       <c r="P68" s="54" t="e">
-        <f>VLOOKUP(C68,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C68,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q68" s="14" t="str">
@@ -20271,7 +20203,7 @@
       <c r="N69" s="16"/>
       <c r="O69" s="2"/>
       <c r="P69" s="54" t="e">
-        <f>VLOOKUP(C69,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C69,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q69" s="14" t="str">
@@ -20296,7 +20228,7 @@
       <c r="N70" s="16"/>
       <c r="O70" s="2"/>
       <c r="P70" s="54" t="e">
-        <f>VLOOKUP(C70,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C70,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q70" s="14" t="str">
@@ -20321,7 +20253,7 @@
       <c r="N71" s="16"/>
       <c r="O71" s="2"/>
       <c r="P71" s="54" t="e">
-        <f>VLOOKUP(C71,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C71,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q71" s="14" t="str">
@@ -20346,7 +20278,7 @@
       <c r="N72" s="16"/>
       <c r="O72" s="2"/>
       <c r="P72" s="54" t="e">
-        <f>VLOOKUP(C72,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C72,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q72" s="14" t="str">
@@ -20371,7 +20303,7 @@
       <c r="N73" s="16"/>
       <c r="O73" s="2"/>
       <c r="P73" s="54" t="e">
-        <f>VLOOKUP(C73,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C73,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q73" s="14" t="str">
@@ -20396,7 +20328,7 @@
       <c r="N74" s="16"/>
       <c r="O74" s="2"/>
       <c r="P74" s="54" t="e">
-        <f>VLOOKUP(C74,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C74,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q74" s="14" t="str">
@@ -20421,7 +20353,7 @@
       <c r="N75" s="16"/>
       <c r="O75" s="2"/>
       <c r="P75" s="54" t="e">
-        <f>VLOOKUP(C75,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C75,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q75" s="14" t="str">
@@ -20446,7 +20378,7 @@
       <c r="N76" s="16"/>
       <c r="O76" s="2"/>
       <c r="P76" s="54" t="e">
-        <f>VLOOKUP(C76,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C76,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q76" s="14" t="str">
@@ -20471,7 +20403,7 @@
       <c r="N77" s="16"/>
       <c r="O77" s="2"/>
       <c r="P77" s="54" t="e">
-        <f>VLOOKUP(C77,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C77,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q77" s="14" t="str">
@@ -20496,7 +20428,7 @@
       <c r="N78" s="16"/>
       <c r="O78" s="2"/>
       <c r="P78" s="54" t="e">
-        <f>VLOOKUP(C78,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C78,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q78" s="14" t="str">
@@ -20521,7 +20453,7 @@
       <c r="N79" s="16"/>
       <c r="O79" s="2"/>
       <c r="P79" s="54" t="e">
-        <f>VLOOKUP(C79,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C79,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q79" s="14" t="str">
@@ -20546,7 +20478,7 @@
       <c r="N80" s="16"/>
       <c r="O80" s="2"/>
       <c r="P80" s="54" t="e">
-        <f>VLOOKUP(C80,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C80,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q80" s="14" t="str">
@@ -20571,7 +20503,7 @@
       <c r="N81" s="16"/>
       <c r="O81" s="2"/>
       <c r="P81" s="54" t="e">
-        <f>VLOOKUP(C81,'Train Runs'!$A$13:$V$209,22,0)</f>
+        <f>VLOOKUP(C81,'Train Runs'!$A$13:$V$208,22,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Q81" s="14" t="str">
@@ -20588,17 +20520,17 @@
     <mergeCell ref="A5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="P6 M6:N6 M7:M1048576">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N81">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>$M7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EC/Train Runs and Enforcements 2016-06-25.xlsx
+++ b/EC/Train Runs and Enforcements 2016-06-25.xlsx
@@ -2143,125 +2143,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_XINGS" xfId="1"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -2307,6 +2189,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2592,8 +2504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM166"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R63" sqref="R63"/>
+    <sheetView showGridLines="0" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R79" sqref="R79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11735,11 +11647,11 @@
         <v>1</v>
       </c>
       <c r="Y102" s="48">
-        <f t="shared" ref="Y102:Y123" si="58">RIGHT(D102,LEN(D102)-4)/10000</f>
+        <f t="shared" ref="Y102:Y117" si="58">RIGHT(D102,LEN(D102)-4)/10000</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="Z102" s="48">
-        <f t="shared" ref="Z102:Z123" si="59">RIGHT(H102,LEN(H102)-4)/10000</f>
+        <f t="shared" ref="Z102:Z117" si="59">RIGHT(H102,LEN(H102)-4)/10000</f>
         <v>23.330500000000001</v>
       </c>
       <c r="AA102" s="48">
@@ -14418,7 +14330,7 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-25 18:25:48-0600',mode:absolute,to:'2016-06-25 19:18:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="W130" s="48" t="str">
-        <f t="shared" ref="W124:W131" si="74">IF(AA130&lt;23,"Y","N")</f>
+        <f t="shared" ref="W130:W131" si="74">IF(AA130&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="X130" s="48">
@@ -14426,15 +14338,15 @@
         <v>1</v>
       </c>
       <c r="Y130" s="48">
-        <f t="shared" ref="Y124:Y131" si="75">RIGHT(D130,LEN(D130)-4)/10000</f>
+        <f t="shared" ref="Y130:Y131" si="75">RIGHT(D130,LEN(D130)-4)/10000</f>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="Z130" s="48">
-        <f t="shared" ref="Z124:Z131" si="76">RIGHT(H130,LEN(H130)-4)/10000</f>
+        <f t="shared" ref="Z130:Z131" si="76">RIGHT(H130,LEN(H130)-4)/10000</f>
         <v>23.331099999999999</v>
       </c>
       <c r="AA130" s="48">
-        <f t="shared" ref="AA124:AA131" si="77">ABS(Z130-Y130)</f>
+        <f t="shared" ref="AA130:AA131" si="77">ABS(Z130-Y130)</f>
         <v>23.285399999999999</v>
       </c>
       <c r="AB130" s="49" t="e">
@@ -17019,27 +16931,27 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="W11:W12 W13:X1048576">
-    <cfRule type="cellIs" dxfId="12" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="69" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X1048576">
-    <cfRule type="cellIs" dxfId="11" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="52" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X1048576">
-    <cfRule type="cellIs" dxfId="10" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135:M135 A13:S13 S13:S29 A136:M143 A144:S156 A14:M134 N117:R156 N14:S143">
-    <cfRule type="expression" dxfId="18" priority="45">
+    <cfRule type="expression" dxfId="5" priority="45">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S156">
-    <cfRule type="expression" dxfId="17" priority="44">
+    <cfRule type="expression" dxfId="4" priority="44">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17071,8 +16983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N59" sqref="N59"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20520,17 +20432,17 @@
     <mergeCell ref="A5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="P6 M6:N6 M7:M1048576">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N81">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$M7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EC/Train Runs and Enforcements 2016-06-25.xlsx
+++ b/EC/Train Runs and Enforcements 2016-06-25.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -1918,7 +1918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2138,6 +2138,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2504,8 +2505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM166"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R79" sqref="R79"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2865,6 +2866,10 @@
       <c r="N11" s="79"/>
       <c r="O11" s="79"/>
       <c r="P11" s="79"/>
+      <c r="S11" s="89">
+        <f>AVERAGE(S13:S99999)</f>
+        <v>0.96270396270396286</v>
+      </c>
     </row>
     <row r="12" spans="1:91" s="10" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
@@ -16983,7 +16988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
